--- a/Data/allvcp.xlsx
+++ b/Data/allvcp.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,6572 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sno</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>10SMA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>20SMA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30SMA</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>50SMA</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>100SMA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>150SMA</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>200SMA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>250SMA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>30SMA_Slope</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>200SMA_Slope</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>V10</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>V20</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>V50</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>V100</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>V250</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>L52Week</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>H52Week</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>10DayChange</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>5DayResult</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>cond1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>cond2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>cond3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>cond4</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>cond5</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>cond6_2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>cond6</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>cond7_2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>cond7</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>cond8</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>cond9</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>cond10</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>cond11</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>VCP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>02328.HK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8.779999732971191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.869999885559082</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.739999771118164</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.840000152587891</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.840000152587891</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46509809</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0008270676691729221</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.005894736842105278</v>
+      </c>
+      <c r="S2" t="n">
+        <v>33651701.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>26384902.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>22171619.76</v>
+      </c>
+      <c r="V2" t="n">
+        <v>22953443.37</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25672366.772</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.003393634892914459</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.0452489327262614</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02328.HK</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.680000305175781</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.869999885559082</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.619999885559082</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.850000381469727</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.850000381469727</v>
+      </c>
+      <c r="H3" t="n">
+        <v>39051713</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.004030075187969916</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.00646616541353384</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31594376.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>27109186.6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>22271930.42</v>
+      </c>
+      <c r="V3" t="n">
+        <v>23053652.93</v>
+      </c>
+      <c r="W3" t="n">
+        <v>25679766.376</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.002259830873141062</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.03954806399811717</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>02328.HK</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.869999885559082</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.869999885559082</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.869999885559082</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30879048</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.00739849624060149</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.007000000000000004</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31570799.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>27767437.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>22609147.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>23104833.32</v>
+      </c>
+      <c r="W4" t="n">
+        <v>25719096.508</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.005637000155576861</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.0349492074342731</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19.23999977111816</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.23999977111816</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.8799991607666</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.07999992370605</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.07999992370605</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4732016</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="O5" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.07910526315789469</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.009481203007518852</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6755247.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6114777.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4709027.84</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4893567.29</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5385645.288</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.07180297928257501</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.04402516540601387</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19.18000030517578</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.8799991607666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19.60000038146973</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9056467</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.08072180451127817</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.01030827067669174</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6707713.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6427935.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4857733.18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4894116.96</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5413115.556</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.05612246735003556</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.04999997567157421</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18.97999954223633</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.79999923706055</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.28000068664551</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.28000068664551</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7069854</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.08207518796992479</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0110375939849624</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6564014.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6673623.45</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4800602.26</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4918690.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5401386.928</v>
+      </c>
+      <c r="X7" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1047717053150424</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.02074686744214338</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.81999969482422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.68000030517578</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.68000030517578</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9008966</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.07875939849624065</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01005263157894742</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6173179.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7324597.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4696904.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4771439.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5440028.22</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.08231701762010209</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.08231701762010202</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19.39999961853027</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.92000007629395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9699758</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="O9" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.07793984962406018</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.00944360902255641</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6494841.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7620305.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4787240.34</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4819461.86</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5472470.764</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.07575757867668916</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.06060610147364831</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.95999908447266</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8663733</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="P10" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.07747368421052635</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.008691729323308278</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6718864.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7887856.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4877027.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4878340.95</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5489167.252</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.06606605230564851</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.02602604953340593</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01910.HK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.45000076293945</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20.60000038146973</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6037452</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="M11" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16.91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.09847368421052632</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.01326315789473686</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7522182.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6847680.7</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5475310.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5239926.22</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5576655.096</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01898.HK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7.130000114440918</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.360000133514404</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.059999942779541</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.340000152587891</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.340000152587891</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25189924</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.04045112781954888</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.01520300751879699</v>
+      </c>
+      <c r="S12" t="n">
+        <v>17135017.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18888386.3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15224064</v>
+      </c>
+      <c r="V12" t="n">
+        <v>16358412.21</v>
+      </c>
+      <c r="W12" t="n">
+        <v>24387375.064</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.0217984088451082</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01898.HK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7.320000171661377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.579999923706055</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.260000228881836</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.519999980926514</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.519999980926514</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20099018</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.04124060150375942</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.01548872180451127</v>
+      </c>
+      <c r="S13" t="n">
+        <v>17336863.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18911827.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15399377.32</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16327848.52</v>
+      </c>
+      <c r="W13" t="n">
+        <v>24306505.928</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.0797872215630836</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>36.90000152587891</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38.79999923706055</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36.40000152587891</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37.95000076293945</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37.95000076293945</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4131663</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37.32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>33.93</v>
+      </c>
+      <c r="L14" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="O14" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2168421052631579</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.07289473684210532</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3777352.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3467156.8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2729332</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2288546.15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2538433.48</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.05928853635748186</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.02371535423157445</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="G15" t="n">
+        <v>38.70000076293945</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2157000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>36.12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="N15" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="P15" t="n">
+        <v>25.44</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2422631578947368</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0736165413533835</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3131120.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3475674.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2703835.78</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2293391.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2518998.556</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.03875968915836445</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.03875968915836436</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="D16" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9048000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>37.76</v>
+      </c>
+      <c r="J16" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="K16" t="n">
+        <v>35.09</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="N16" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="O16" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2639548872180451</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.07340601503759403</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3643118.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3612127.35</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2804631.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2377318.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2526730.14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.03855719421999337</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="D17" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.40000152587891</v>
+      </c>
+      <c r="F17" t="n">
+        <v>38.84999847412109</v>
+      </c>
+      <c r="G17" t="n">
+        <v>38.84999847412109</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4418400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="K17" t="n">
+        <v>35.46</v>
+      </c>
+      <c r="L17" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="M17" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>27</v>
+      </c>
+      <c r="O17" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="P17" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2734661654135339</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.07270676691729325</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3776958.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3696047.35</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2858879.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2410472.62</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2508699.024</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.03474909502808952</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.0604890235886747</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>38.65000152587891</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="E18" t="n">
+        <v>38.20000076293945</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.04999923706055</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.04999923706055</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38.11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>37.22</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="L18" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="M18" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="N18" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>26.61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.281812030075188</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.07202255639097746</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3856558.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3722447.35</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2881846.64</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2427566.51</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2514579.024</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.003745356522756217</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.06866417109579537</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01385.HK</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>39.09999847412109</v>
+      </c>
+      <c r="D19" t="n">
+        <v>41.34999847412109</v>
+      </c>
+      <c r="E19" t="n">
+        <v>39.09999847412109</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40.20000076293945</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4347993</v>
+      </c>
+      <c r="I19" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="J19" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>36.17</v>
+      </c>
+      <c r="L19" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2892330827067671</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.07090977443609024</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4007057.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3843597</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2936888.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2454506.44</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2508616.156</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.01990047815616119</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.06716419680838903</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01361.HK</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.019999980926514</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.46999979019165</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.019999980926514</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.159999847412109</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.159999847412109</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5993000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0003233082706766802</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.001812030075187971</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1925100</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1530150</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1469448.68</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1337430.34</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2459131.02</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.04567303504111356</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.06249994268783932</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01230.HK</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.169999957084656</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.169999957084656</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.169999957084656</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7389000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.003015037593984963</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.002834586466165408</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1980299.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2832599.65</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3705913.72</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4709623.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3209685.312</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.00854700070944836</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01138.HK</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.190000057220459</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.989999771118164</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.989999771118164</v>
+      </c>
+      <c r="H22" t="n">
+        <v>48062000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.04374436090225563</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.01786466165413534</v>
+      </c>
+      <c r="S22" t="n">
+        <v>32797851.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>32466690.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>27187873.36</v>
+      </c>
+      <c r="V22" t="n">
+        <v>26657470.01</v>
+      </c>
+      <c r="W22" t="n">
+        <v>17722583.172</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.01144497899324182</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01138.HK</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7.159999847412109</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7.449999809265137</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.039999961853027</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="H23" t="n">
+        <v>55498050</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.04365413533834587</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.01816541353383459</v>
+      </c>
+      <c r="S23" t="n">
+        <v>34222656.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>32808553.15</v>
+      </c>
+      <c r="U23" t="n">
+        <v>28121434.36</v>
+      </c>
+      <c r="V23" t="n">
+        <v>26901507.94</v>
+      </c>
+      <c r="W23" t="n">
+        <v>17864167.372</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.009459482535033814</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8.510000228881836</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8.619999885559082</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.510000228881836</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.550000190734863</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.550000190734863</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5674909</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0003609022556390901</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.005330827067669174</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7461282.1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6380118.15</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7766722.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9071894.01</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8025808.096</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.04678358007099576</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.04327483945088439</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8.640000343322754</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.779999732971191</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.609999656677246</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.640000343322754</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.640000343322754</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20041998</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="O25" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.001000000000000004</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.005383458646616538</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8924828.6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7253335.35</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8064194.4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9101076.23</v>
+      </c>
+      <c r="W25" t="n">
+        <v>8089656.18</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.009259250061012025</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>8.760000228881836</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.930000305175781</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.640000343322754</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="H26" t="n">
+        <v>25168363</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.001593984962406029</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.005413533834586455</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10765832.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>8319290.7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8490222.359999999</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9193923.4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8177901.232</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.01359002113204055</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8.840000152587891</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.739999771118164</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.939999580383301</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.939999580383301</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36978168</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="K27" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.002428571428571445</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.00570676691729323</v>
+      </c>
+      <c r="S27" t="n">
+        <v>13971105.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>9847755.4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9059044.460000001</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9410610.939999999</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8315649.904</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.05145414538456283</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8.899999618530273</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.720000267028809</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="H28" t="n">
+        <v>13127777</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.003330827067669188</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.006105263157894738</v>
+      </c>
+      <c r="S28" t="n">
+        <v>14780951.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10060116.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9105366.08</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9497608.710000001</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8355713.22</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.05549261329013755</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>8.880000114440918</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.149999618530273</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.829999923706055</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.920000076293945</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.920000076293945</v>
+      </c>
+      <c r="H29" t="n">
+        <v>49466685</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.004142857142857155</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.006451127819548873</v>
+      </c>
+      <c r="S29" t="n">
+        <v>18922770.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>12462027.15</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9940836.880000001</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9918811.029999999</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8536484.988</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.07174891679918671</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>00293.HK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8.739999771118164</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.979999542236328</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.739999771118164</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.949999809265137</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.949999809265137</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20441895</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.005751879699248119</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.007556390977443601</v>
+      </c>
+      <c r="S30" t="n">
+        <v>21099944.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>14195966.95</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10558313.16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10232096.45</v>
+      </c>
+      <c r="W30" t="n">
+        <v>8694934.468</v>
+      </c>
+      <c r="X30" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10.39999961853027</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.27999973297119</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10.42000007629395</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10.42000007629395</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3094762</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="L31" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="M31" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.001969924812030056</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.01447368421052632</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5553798.9</v>
+      </c>
+      <c r="T31" t="n">
+        <v>4404403.65</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5125641.24</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4803052.52</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3964077.516</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0537427506566346</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.05374275065663459</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.26000022888184</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10.30000019073486</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10.30000019073486</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4247888</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.004616541353383455</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01466917293233083</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5779006.7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4432771.85</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4916734.86</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4815918.24</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3970510.236</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.06601935329216292</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.04271840507139912</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>10.23999977111816</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.80000019073486</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.23999977111816</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10.68000030517578</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.68000030517578</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11776488</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.007315789473684194</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.01488721804511278</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6285053.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4865075.15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4919019.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4871746.25</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4010938.584</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.02808981540151865</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.01310864600396155</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10.69999980926514</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10.77999973297119</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.64000034332275</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10.64000034332275</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3699503</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.009834586466165411</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.01511278195488723</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6274859.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5006525</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4812068.32</v>
+      </c>
+      <c r="V34" t="n">
+        <v>4872116.07</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4020911.556</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0319548108968765</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.001879742210367685</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.69999980926514</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.42000007629395</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.60000038146973</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10.60000038146973</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4049938</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.01224060150375941</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.01533082706766918</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6081858.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4924484.7</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4758042.86</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4867630.42</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4029498.556</v>
+      </c>
+      <c r="X35" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.03584897614068873</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.005660416741266383</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>00123.HK</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10.39999961853027</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.77999973297119</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.26000022888184</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.64000034332275</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.64000034332275</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5357291</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="M36" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02728571428571431</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.01612781954887218</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5858139.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5705969.15</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4693161.14</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5016693.18</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4095769.236</v>
+      </c>
+      <c r="X36" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.1071428859528346</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>9.079999923706055</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9.079999923706055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.119999885559082</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8.889999389648438</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1540000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="M37" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.04537593984962406</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.004714285714285718</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1901142.9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4387724.15</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2391109.06</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1441827.29</v>
+      </c>
+      <c r="W37" t="n">
+        <v>950698.552</v>
+      </c>
+      <c r="X37" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.01644743136917204</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.01206136601508334</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9.029999732971191</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.189999580383301</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9.029999732971191</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.159999847412109</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.159999847412109</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1465000</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.04983458646616543</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.005030075187969922</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1390477.7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3807285.05</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2417566.34</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1468600.77</v>
+      </c>
+      <c r="W38" t="n">
+        <v>966040.572</v>
+      </c>
+      <c r="X38" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0120088004567642</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.02074231261444615</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9.180000305175781</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.369999885559082</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5692899</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.05107518796992484</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.00506015037593984</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1907767.6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3527978.7</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2508991.76</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1523229.76</v>
+      </c>
+      <c r="W39" t="n">
+        <v>987528.1679999999</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.002162211650126689</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.002162211650126755</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.050000190734863</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.289999961853027</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8696520</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="M40" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="P40" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.05524812030075187</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.005225563909774435</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2527262</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2355341.95</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2745472.56</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1646294.79</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1031725.528</v>
+      </c>
+      <c r="X40" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.01294507371171671</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.449999809265137</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.210000038146973</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.260000228881836</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.260000228881836</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8185000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.05594736842105263</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.005338345864661653</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3191762</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2546452.45</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2905749.64</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1722293.97</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1063975.528</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.03131748970680592</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>9.239999771118164</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.310000419616699</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.020000457763672</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.270000457763672</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5375000</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="O42" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.05646616541353384</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.005428571428571437</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3616490.3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2603827.45</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3009849.64</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1769668.97</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1084495.528</v>
+      </c>
+      <c r="X42" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>-0.03559879839099611</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.390000343322754</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9.229999542236328</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9.260000228881836</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.260000228881836</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2353460</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0566466165413534</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.005639097744360913</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3684623.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2593375.45</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3036562.22</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1789498.66</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1093449.368</v>
+      </c>
+      <c r="X43" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.009719238700144017</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>00087.HK</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8.939999580383301</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.170000076293945</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.909999847412109</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9.170000076293945</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.170000076293945</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3837000</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="O44" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.04905263157894738</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.007060150375939845</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4184074.8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2987538.95</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3254634.56</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1910028.77</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1134523.288</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="D45" t="n">
+        <v>55.79999923706055</v>
+      </c>
+      <c r="E45" t="n">
+        <v>54.70000076293945</v>
+      </c>
+      <c r="F45" t="n">
+        <v>55</v>
+      </c>
+      <c r="G45" t="n">
+        <v>53.85000228881836</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2469659</v>
+      </c>
+      <c r="I45" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="J45" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>50.93</v>
+      </c>
+      <c r="L45" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="M45" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="N45" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="O45" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="P45" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3037744360902255</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.03012030075187969</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2133282.6</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2816249.3</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1659969.7</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1363311.99</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1232201.692</v>
+      </c>
+      <c r="X45" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.08636363636363636</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.001818154074928913</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>54.90000152587891</v>
+      </c>
+      <c r="D46" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="E46" t="n">
+        <v>54.70000076293945</v>
+      </c>
+      <c r="F46" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1837431</v>
+      </c>
+      <c r="I46" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K46" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="M46" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="N46" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="O46" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3214060150375939</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.03144360902255629</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2220666.6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2585344.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1738121.88</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1410834.31</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1248945.752</v>
+      </c>
+      <c r="X46" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.08144796380090498</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.01176473350007079</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="E47" t="n">
+        <v>55.45000076293945</v>
+      </c>
+      <c r="F47" t="n">
+        <v>56.59999847412109</v>
+      </c>
+      <c r="G47" t="n">
+        <v>56.59999847412109</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4336566</v>
+      </c>
+      <c r="I47" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J47" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="L47" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="M47" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="N47" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="O47" t="n">
+        <v>46.57</v>
+      </c>
+      <c r="P47" t="n">
+        <v>47.01</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3259624060150376</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.03151879699248112</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2540761.8</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2579031.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1808081.42</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1445980.04</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1264324.684</v>
+      </c>
+      <c r="X47" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.05918732118606099</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.04416961249818874</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>55.59999847412109</v>
+      </c>
+      <c r="D48" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="E48" t="n">
+        <v>55.15000152587891</v>
+      </c>
+      <c r="F48" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1716960</v>
+      </c>
+      <c r="I48" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="K48" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="L48" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="M48" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="N48" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="O48" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3402932330827067</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.03228571428571415</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2248496.6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2272140.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1883114.88</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1488866.99</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1281195.628</v>
+      </c>
+      <c r="X48" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.05545614292489676</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>56.65000152587891</v>
+      </c>
+      <c r="D49" t="n">
+        <v>59.15000152587891</v>
+      </c>
+      <c r="E49" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="G49" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3887953</v>
+      </c>
+      <c r="I49" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="J49" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="K49" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="L49" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="M49" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="N49" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="O49" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="P49" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3451503759398497</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.03306766917293226</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2476538.4</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2319863.95</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1943684.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1520436.91</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1295073.088</v>
+      </c>
+      <c r="X49" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.01438244180650128</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="D50" t="n">
+        <v>60</v>
+      </c>
+      <c r="E50" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="F50" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="G50" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2639307</v>
+      </c>
+      <c r="I50" t="n">
+        <v>57.09</v>
+      </c>
+      <c r="J50" t="n">
+        <v>56</v>
+      </c>
+      <c r="K50" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="L50" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="M50" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="N50" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="O50" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="P50" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.3632706766917291</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.03916541353383451</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2929862.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2595259.55</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2147652.32</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1594706.59</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1333345.832</v>
+      </c>
+      <c r="X50" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.01094278634985768</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>59</v>
+      </c>
+      <c r="D51" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E51" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="F51" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="G51" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3558732</v>
+      </c>
+      <c r="I51" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="K51" t="n">
+        <v>55.98</v>
+      </c>
+      <c r="L51" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="M51" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="N51" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="O51" t="n">
+        <v>47.21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3673834586466165</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.04547368421052635</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3242263.9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2891512.85</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2309577.74</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1674021.34</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1350092.548</v>
+      </c>
+      <c r="X51" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/allvcp.xlsx
+++ b/Data/allvcp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,45 +600,30 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>cond6_2</t>
+          <t>cond6</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>cond6</t>
+          <t>cond7</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>cond7_2</t>
+          <t>cond8</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>cond7</t>
+          <t>cond9</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>cond8</t>
+          <t>cond10</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>cond9</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>cond10</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>cond11</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>VCP</t>
         </is>
@@ -761,15 +746,6 @@
       <c r="AL2" t="b">
         <v>1</v>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,15 +864,6 @@
       <c r="AL3" t="b">
         <v>1</v>
       </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1015,99 +982,90 @@
       <c r="AL4" t="b">
         <v>1</v>
       </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44805</v>
+        <v>44839</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01910.HK</t>
+          <t>02328.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19.23999977111816</v>
+        <v>8.270000457763672</v>
       </c>
       <c r="D5" t="n">
-        <v>19.23999977111816</v>
+        <v>8.479999542236328</v>
       </c>
       <c r="E5" t="n">
-        <v>18.8799991607666</v>
+        <v>8.25</v>
       </c>
       <c r="F5" t="n">
-        <v>19.07999992370605</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="G5" t="n">
-        <v>19.07999992370605</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="H5" t="n">
-        <v>4732016</v>
+        <v>21198245</v>
       </c>
       <c r="I5" t="n">
-        <v>19.38</v>
+        <v>8.27</v>
       </c>
       <c r="J5" t="n">
-        <v>18.53</v>
+        <v>8.5</v>
       </c>
       <c r="K5" t="n">
-        <v>17.92</v>
+        <v>8.4</v>
       </c>
       <c r="L5" t="n">
-        <v>17.29</v>
+        <v>8.15</v>
       </c>
       <c r="M5" t="n">
-        <v>16.97</v>
+        <v>8.1</v>
       </c>
       <c r="N5" t="n">
-        <v>16.85</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>16.64</v>
+        <v>7.82</v>
       </c>
       <c r="P5" t="n">
-        <v>16.6</v>
+        <v>7.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07910526315789469</v>
+        <v>0.02614285714285714</v>
       </c>
       <c r="R5" t="n">
-        <v>0.009481203007518852</v>
+        <v>0.00802255639097744</v>
       </c>
       <c r="S5" t="n">
-        <v>6755247.3</v>
+        <v>23855705.2</v>
       </c>
       <c r="T5" t="n">
-        <v>6114777.05</v>
+        <v>28641042.6</v>
       </c>
       <c r="U5" t="n">
-        <v>4709027.84</v>
+        <v>25413466.32</v>
       </c>
       <c r="V5" t="n">
-        <v>4893567.29</v>
+        <v>23805587.55</v>
       </c>
       <c r="W5" t="n">
-        <v>5385645.288</v>
+        <v>26008453.772</v>
       </c>
       <c r="X5" t="n">
-        <v>12.56</v>
+        <v>6.21</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.15</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.07180297928257501</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.04402516540601387</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="b">
         <v>1</v>
@@ -1140,21 +1098,12 @@
         <v>1</v>
       </c>
       <c r="AL5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1162,67 +1111,67 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.18000030517578</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="D6" t="n">
-        <v>19.79999923706055</v>
+        <v>19.23999977111816</v>
       </c>
       <c r="E6" t="n">
         <v>18.8799991607666</v>
       </c>
       <c r="F6" t="n">
-        <v>19.60000038146973</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="G6" t="n">
-        <v>19.60000038146973</v>
+        <v>19.07999992370605</v>
       </c>
       <c r="H6" t="n">
-        <v>9056467</v>
+        <v>4732016</v>
       </c>
       <c r="I6" t="n">
-        <v>19.33</v>
+        <v>19.38</v>
       </c>
       <c r="J6" t="n">
-        <v>18.66</v>
+        <v>18.53</v>
       </c>
       <c r="K6" t="n">
-        <v>18</v>
+        <v>17.92</v>
       </c>
       <c r="L6" t="n">
-        <v>17.38</v>
+        <v>17.29</v>
       </c>
       <c r="M6" t="n">
-        <v>17.01</v>
+        <v>16.97</v>
       </c>
       <c r="N6" t="n">
-        <v>16.87</v>
+        <v>16.85</v>
       </c>
       <c r="O6" t="n">
-        <v>16.65</v>
+        <v>16.64</v>
       </c>
       <c r="P6" t="n">
-        <v>16.61</v>
+        <v>16.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08072180451127817</v>
+        <v>0.07910526315789469</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01030827067669174</v>
+        <v>0.009481203007518852</v>
       </c>
       <c r="S6" t="n">
-        <v>6707713.5</v>
+        <v>6755247.3</v>
       </c>
       <c r="T6" t="n">
-        <v>6427935.75</v>
+        <v>6114777.05</v>
       </c>
       <c r="U6" t="n">
-        <v>4857733.18</v>
+        <v>4709027.84</v>
       </c>
       <c r="V6" t="n">
-        <v>4894116.96</v>
+        <v>4893567.29</v>
       </c>
       <c r="W6" t="n">
-        <v>5413115.556</v>
+        <v>5385645.288</v>
       </c>
       <c r="X6" t="n">
         <v>12.56</v>
@@ -1231,10 +1180,10 @@
         <v>20.15</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05612246735003556</v>
+        <v>0.07180297928257501</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.04999997567157421</v>
+        <v>-0.04402516540601387</v>
       </c>
       <c r="AB6" t="b">
         <v>1</v>
@@ -1267,21 +1216,12 @@
         <v>1</v>
       </c>
       <c r="AL6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44809</v>
+        <v>44806</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1289,67 +1229,67 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18.97999954223633</v>
+        <v>19.18000030517578</v>
       </c>
       <c r="D7" t="n">
-        <v>19.5</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="E7" t="n">
-        <v>18.79999923706055</v>
+        <v>18.8799991607666</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28000068664551</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28000068664551</v>
+        <v>19.60000038146973</v>
       </c>
       <c r="H7" t="n">
-        <v>7069854</v>
+        <v>9056467</v>
       </c>
       <c r="I7" t="n">
-        <v>19.26</v>
+        <v>19.33</v>
       </c>
       <c r="J7" t="n">
-        <v>18.77</v>
+        <v>18.66</v>
       </c>
       <c r="K7" t="n">
-        <v>18.07</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>17.46</v>
+        <v>17.38</v>
       </c>
       <c r="M7" t="n">
-        <v>17.04</v>
+        <v>17.01</v>
       </c>
       <c r="N7" t="n">
-        <v>16.89</v>
+        <v>16.87</v>
       </c>
       <c r="O7" t="n">
-        <v>16.66</v>
+        <v>16.65</v>
       </c>
       <c r="P7" t="n">
-        <v>16.62</v>
+        <v>16.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08207518796992479</v>
+        <v>0.08072180451127817</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0110375939849624</v>
+        <v>0.01030827067669174</v>
       </c>
       <c r="S7" t="n">
-        <v>6564014.6</v>
+        <v>6707713.5</v>
       </c>
       <c r="T7" t="n">
-        <v>6673623.45</v>
+        <v>6427935.75</v>
       </c>
       <c r="U7" t="n">
-        <v>4800602.26</v>
+        <v>4857733.18</v>
       </c>
       <c r="V7" t="n">
-        <v>4918690.1</v>
+        <v>4894116.96</v>
       </c>
       <c r="W7" t="n">
-        <v>5401386.928</v>
+        <v>5413115.556</v>
       </c>
       <c r="X7" t="n">
         <v>12.56</v>
@@ -1358,10 +1298,10 @@
         <v>20.15</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1047717053150424</v>
+        <v>0.05612246735003556</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02074686744214338</v>
+        <v>-0.04999997567157421</v>
       </c>
       <c r="AB7" t="b">
         <v>1</v>
@@ -1394,21 +1334,12 @@
         <v>1</v>
       </c>
       <c r="AL7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44817</v>
+        <v>44809</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1416,67 +1347,67 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18.89999961853027</v>
+        <v>18.97999954223633</v>
       </c>
       <c r="D8" t="n">
-        <v>19.97999954223633</v>
+        <v>19.5</v>
       </c>
       <c r="E8" t="n">
-        <v>18.81999969482422</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F8" t="n">
-        <v>19.68000030517578</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="G8" t="n">
-        <v>19.68000030517578</v>
+        <v>19.28000068664551</v>
       </c>
       <c r="H8" t="n">
-        <v>9008966</v>
+        <v>7069854</v>
       </c>
       <c r="I8" t="n">
-        <v>19.04</v>
+        <v>19.26</v>
       </c>
       <c r="J8" t="n">
-        <v>19.12</v>
+        <v>18.77</v>
       </c>
       <c r="K8" t="n">
-        <v>18.42</v>
+        <v>18.07</v>
       </c>
       <c r="L8" t="n">
-        <v>17.75</v>
+        <v>17.46</v>
       </c>
       <c r="M8" t="n">
-        <v>17.16</v>
+        <v>17.04</v>
       </c>
       <c r="N8" t="n">
-        <v>16.98</v>
+        <v>16.89</v>
       </c>
       <c r="O8" t="n">
-        <v>16.67</v>
+        <v>16.66</v>
       </c>
       <c r="P8" t="n">
-        <v>16.67</v>
+        <v>16.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07875939849624065</v>
+        <v>0.08207518796992479</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01005263157894742</v>
+        <v>0.0110375939849624</v>
       </c>
       <c r="S8" t="n">
-        <v>6173179.1</v>
+        <v>6564014.6</v>
       </c>
       <c r="T8" t="n">
-        <v>7324597.2</v>
+        <v>6673623.45</v>
       </c>
       <c r="U8" t="n">
-        <v>4696904.6</v>
+        <v>4800602.26</v>
       </c>
       <c r="V8" t="n">
-        <v>4771439.28</v>
+        <v>4918690.1</v>
       </c>
       <c r="W8" t="n">
-        <v>5440028.22</v>
+        <v>5401386.928</v>
       </c>
       <c r="X8" t="n">
         <v>12.56</v>
@@ -1485,10 +1416,10 @@
         <v>20.15</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.08231701762010209</v>
+        <v>0.1047717053150424</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08231701762010202</v>
+        <v>0.02074686744214338</v>
       </c>
       <c r="AB8" t="b">
         <v>1</v>
@@ -1521,21 +1452,12 @@
         <v>1</v>
       </c>
       <c r="AL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1543,67 +1465,67 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.39999961853027</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="D9" t="n">
-        <v>19.92000007629395</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="E9" t="n">
-        <v>19.29999923706055</v>
+        <v>18.81999969482422</v>
       </c>
       <c r="F9" t="n">
-        <v>19.79999923706055</v>
+        <v>19.68000030517578</v>
       </c>
       <c r="G9" t="n">
-        <v>19.79999923706055</v>
+        <v>19.68000030517578</v>
       </c>
       <c r="H9" t="n">
-        <v>9699758</v>
+        <v>9008966</v>
       </c>
       <c r="I9" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="J9" t="n">
         <v>19.12</v>
       </c>
-      <c r="J9" t="n">
-        <v>19.21</v>
-      </c>
       <c r="K9" t="n">
-        <v>18.54</v>
+        <v>18.42</v>
       </c>
       <c r="L9" t="n">
-        <v>17.83</v>
+        <v>17.75</v>
       </c>
       <c r="M9" t="n">
-        <v>17.18</v>
+        <v>17.16</v>
       </c>
       <c r="N9" t="n">
-        <v>16.99</v>
+        <v>16.98</v>
       </c>
       <c r="O9" t="n">
-        <v>16.68</v>
+        <v>16.67</v>
       </c>
       <c r="P9" t="n">
-        <v>16.68</v>
+        <v>16.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07793984962406018</v>
+        <v>0.07875939849624065</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00944360902255641</v>
+        <v>0.01005263157894742</v>
       </c>
       <c r="S9" t="n">
-        <v>6494841.5</v>
+        <v>6173179.1</v>
       </c>
       <c r="T9" t="n">
-        <v>7620305.1</v>
+        <v>7324597.2</v>
       </c>
       <c r="U9" t="n">
-        <v>4787240.34</v>
+        <v>4696904.6</v>
       </c>
       <c r="V9" t="n">
-        <v>4819461.86</v>
+        <v>4771439.28</v>
       </c>
       <c r="W9" t="n">
-        <v>5472470.764</v>
+        <v>5440028.22</v>
       </c>
       <c r="X9" t="n">
         <v>12.56</v>
@@ -1612,10 +1534,10 @@
         <v>20.15</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.07575757867668916</v>
+        <v>0.08231701762010209</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.06060610147364831</v>
+        <v>0.08231701762010202</v>
       </c>
       <c r="AB9" t="b">
         <v>1</v>
@@ -1648,21 +1570,12 @@
         <v>1</v>
       </c>
       <c r="AL9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44819</v>
+        <v>44818</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1670,67 +1583,67 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="D10" t="n">
-        <v>20.89999961853027</v>
+        <v>19.92000007629395</v>
       </c>
       <c r="E10" t="n">
-        <v>19.95999908447266</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="F10" t="n">
-        <v>19.97999954223633</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="G10" t="n">
-        <v>19.97999954223633</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="H10" t="n">
-        <v>8663733</v>
+        <v>9699758</v>
       </c>
       <c r="I10" t="n">
-        <v>19.2</v>
+        <v>19.12</v>
       </c>
       <c r="J10" t="n">
-        <v>19.31</v>
+        <v>19.21</v>
       </c>
       <c r="K10" t="n">
-        <v>18.67</v>
+        <v>18.54</v>
       </c>
       <c r="L10" t="n">
-        <v>17.9</v>
+        <v>17.83</v>
       </c>
       <c r="M10" t="n">
-        <v>17.21</v>
+        <v>17.18</v>
       </c>
       <c r="N10" t="n">
-        <v>17.01</v>
+        <v>16.99</v>
       </c>
       <c r="O10" t="n">
-        <v>16.69</v>
+        <v>16.68</v>
       </c>
       <c r="P10" t="n">
-        <v>16.69</v>
+        <v>16.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07747368421052635</v>
+        <v>0.07793984962406018</v>
       </c>
       <c r="R10" t="n">
-        <v>0.008691729323308278</v>
+        <v>0.00944360902255641</v>
       </c>
       <c r="S10" t="n">
-        <v>6718864.8</v>
+        <v>6494841.5</v>
       </c>
       <c r="T10" t="n">
-        <v>7887856.75</v>
+        <v>7620305.1</v>
       </c>
       <c r="U10" t="n">
-        <v>4877027.04</v>
+        <v>4787240.34</v>
       </c>
       <c r="V10" t="n">
-        <v>4878340.95</v>
+        <v>4819461.86</v>
       </c>
       <c r="W10" t="n">
-        <v>5489167.252</v>
+        <v>5472470.764</v>
       </c>
       <c r="X10" t="n">
         <v>12.56</v>
@@ -1739,10 +1652,10 @@
         <v>20.15</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06606605230564851</v>
+        <v>0.07575757867668916</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02602604953340593</v>
+        <v>0.06060610147364831</v>
       </c>
       <c r="AB10" t="b">
         <v>1</v>
@@ -1775,21 +1688,12 @@
         <v>1</v>
       </c>
       <c r="AL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44831</v>
+        <v>44819</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1797,79 +1701,79 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20.79999923706055</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>21.45000076293945</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="E11" t="n">
-        <v>20.60000038146973</v>
+        <v>19.95999908447266</v>
       </c>
       <c r="F11" t="n">
-        <v>21.29999923706055</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="G11" t="n">
-        <v>21.29999923706055</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="H11" t="n">
-        <v>6037452</v>
+        <v>8663733</v>
       </c>
       <c r="I11" t="n">
-        <v>20.6</v>
+        <v>19.2</v>
       </c>
       <c r="J11" t="n">
-        <v>19.82</v>
+        <v>19.31</v>
       </c>
       <c r="K11" t="n">
-        <v>19.61</v>
+        <v>18.67</v>
       </c>
       <c r="L11" t="n">
-        <v>18.56</v>
+        <v>17.9</v>
       </c>
       <c r="M11" t="n">
-        <v>17.49</v>
+        <v>17.21</v>
       </c>
       <c r="N11" t="n">
-        <v>17.17</v>
+        <v>17.01</v>
       </c>
       <c r="O11" t="n">
-        <v>16.91</v>
+        <v>16.69</v>
       </c>
       <c r="P11" t="n">
-        <v>16.89</v>
+        <v>16.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09847368421052632</v>
+        <v>0.07747368421052635</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01326315789473686</v>
+        <v>0.008691729323308278</v>
       </c>
       <c r="S11" t="n">
-        <v>7522182.3</v>
+        <v>6718864.8</v>
       </c>
       <c r="T11" t="n">
-        <v>6847680.7</v>
+        <v>7887856.75</v>
       </c>
       <c r="U11" t="n">
-        <v>5475310.3</v>
+        <v>4877027.04</v>
       </c>
       <c r="V11" t="n">
-        <v>5239926.22</v>
+        <v>4878340.95</v>
       </c>
       <c r="W11" t="n">
-        <v>5576655.096</v>
+        <v>5489167.252</v>
       </c>
       <c r="X11" t="n">
         <v>12.56</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.3</v>
+        <v>20.15</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.06606605230564851</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.02602604953340593</v>
       </c>
       <c r="AB11" t="b">
         <v>1</v>
@@ -1902,101 +1806,92 @@
         <v>1</v>
       </c>
       <c r="AL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44824</v>
+        <v>44831</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01898.HK</t>
+          <t>01910.HK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.130000114440918</v>
+        <v>20.79999923706055</v>
       </c>
       <c r="D12" t="n">
-        <v>7.360000133514404</v>
+        <v>21.45000076293945</v>
       </c>
       <c r="E12" t="n">
-        <v>7.059999942779541</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="F12" t="n">
-        <v>7.340000152587891</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="G12" t="n">
-        <v>7.340000152587891</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="H12" t="n">
-        <v>25189924</v>
+        <v>6037452</v>
       </c>
       <c r="I12" t="n">
-        <v>7.42</v>
+        <v>20.6</v>
       </c>
       <c r="J12" t="n">
-        <v>7.33</v>
+        <v>19.82</v>
       </c>
       <c r="K12" t="n">
-        <v>7.03</v>
+        <v>19.61</v>
       </c>
       <c r="L12" t="n">
-        <v>6.69</v>
+        <v>18.56</v>
       </c>
       <c r="M12" t="n">
-        <v>6.75</v>
+        <v>17.49</v>
       </c>
       <c r="N12" t="n">
-        <v>6.35</v>
+        <v>17.17</v>
       </c>
       <c r="O12" t="n">
-        <v>5.92</v>
+        <v>16.91</v>
       </c>
       <c r="P12" t="n">
-        <v>5.78</v>
+        <v>16.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04045112781954888</v>
+        <v>0.09847368421052632</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01520300751879699</v>
+        <v>0.01326315789473686</v>
       </c>
       <c r="S12" t="n">
-        <v>17135017.5</v>
+        <v>7522182.3</v>
       </c>
       <c r="T12" t="n">
-        <v>18888386.3</v>
+        <v>6847680.7</v>
       </c>
       <c r="U12" t="n">
-        <v>15224064</v>
+        <v>5475310.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16358412.21</v>
+        <v>5239926.22</v>
       </c>
       <c r="W12" t="n">
-        <v>24387375.064</v>
+        <v>5576655.096</v>
       </c>
       <c r="X12" t="n">
-        <v>3.92</v>
+        <v>12.56</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.96</v>
+        <v>21.3</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.0217984088451082</v>
+        <v>-0.04225350473085199</v>
       </c>
       <c r="AB12" t="b">
         <v>1</v>
@@ -2029,21 +1924,12 @@
         <v>1</v>
       </c>
       <c r="AL12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44825</v>
+        <v>44824</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2051,67 +1937,67 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.320000171661377</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D13" t="n">
-        <v>7.579999923706055</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="E13" t="n">
-        <v>7.260000228881836</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="F13" t="n">
-        <v>7.519999980926514</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="G13" t="n">
-        <v>7.519999980926514</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="H13" t="n">
-        <v>20099018</v>
+        <v>25189924</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="J13" t="n">
-        <v>7.35</v>
+        <v>7.33</v>
       </c>
       <c r="K13" t="n">
-        <v>7.07</v>
+        <v>7.03</v>
       </c>
       <c r="L13" t="n">
-        <v>6.71</v>
+        <v>6.69</v>
       </c>
       <c r="M13" t="n">
-        <v>6.77</v>
+        <v>6.75</v>
       </c>
       <c r="N13" t="n">
-        <v>6.36</v>
+        <v>6.35</v>
       </c>
       <c r="O13" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="P13" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04124060150375942</v>
+        <v>0.04045112781954888</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01548872180451127</v>
+        <v>0.01520300751879699</v>
       </c>
       <c r="S13" t="n">
-        <v>17336863.9</v>
+        <v>17135017.5</v>
       </c>
       <c r="T13" t="n">
-        <v>18911827.2</v>
+        <v>18888386.3</v>
       </c>
       <c r="U13" t="n">
-        <v>15399377.32</v>
+        <v>15224064</v>
       </c>
       <c r="V13" t="n">
-        <v>16327848.52</v>
+        <v>16358412.21</v>
       </c>
       <c r="W13" t="n">
-        <v>24306505.928</v>
+        <v>24387375.064</v>
       </c>
       <c r="X13" t="n">
         <v>3.92</v>
@@ -2120,10 +2006,10 @@
         <v>7.96</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.07901906153252081</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.0797872215630836</v>
+        <v>-0.0217984088451082</v>
       </c>
       <c r="AB13" t="b">
         <v>1</v>
@@ -2156,101 +2042,92 @@
         <v>1</v>
       </c>
       <c r="AL13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44806</v>
+        <v>44825</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01385.HK</t>
+          <t>01898.HK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36.90000152587891</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="D14" t="n">
-        <v>38.79999923706055</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="E14" t="n">
-        <v>36.40000152587891</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F14" t="n">
-        <v>37.95000076293945</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="G14" t="n">
-        <v>37.95000076293945</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="H14" t="n">
-        <v>4131663</v>
+        <v>20099018</v>
       </c>
       <c r="I14" t="n">
-        <v>37.32</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>35.65</v>
+        <v>7.35</v>
       </c>
       <c r="K14" t="n">
-        <v>33.93</v>
+        <v>7.07</v>
       </c>
       <c r="L14" t="n">
-        <v>32.16</v>
+        <v>6.71</v>
       </c>
       <c r="M14" t="n">
-        <v>29.07</v>
+        <v>6.77</v>
       </c>
       <c r="N14" t="n">
-        <v>26.43</v>
+        <v>6.36</v>
       </c>
       <c r="O14" t="n">
-        <v>26.25</v>
+        <v>5.94</v>
       </c>
       <c r="P14" t="n">
-        <v>25.33</v>
+        <v>5.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2168421052631579</v>
+        <v>0.04124060150375942</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07289473684210532</v>
+        <v>0.01548872180451127</v>
       </c>
       <c r="S14" t="n">
-        <v>3777352.6</v>
+        <v>17336863.9</v>
       </c>
       <c r="T14" t="n">
-        <v>3467156.8</v>
+        <v>18911827.2</v>
       </c>
       <c r="U14" t="n">
-        <v>2729332</v>
+        <v>15399377.32</v>
       </c>
       <c r="V14" t="n">
-        <v>2288546.15</v>
+        <v>16327848.52</v>
       </c>
       <c r="W14" t="n">
-        <v>2538433.48</v>
+        <v>24306505.928</v>
       </c>
       <c r="X14" t="n">
-        <v>18.24</v>
+        <v>3.92</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.2</v>
+        <v>7.96</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05928853635748186</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02371535423157445</v>
+        <v>-0.0797872215630836</v>
       </c>
       <c r="AB14" t="b">
         <v>1</v>
@@ -2283,21 +2160,12 @@
         <v>1</v>
       </c>
       <c r="AL14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2305,79 +2173,79 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.40000152587891</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="D15" t="n">
-        <v>38.75</v>
+        <v>38.79999923706055</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>36.40000152587891</v>
       </c>
       <c r="F15" t="n">
-        <v>38.70000076293945</v>
+        <v>37.95000076293945</v>
       </c>
       <c r="G15" t="n">
-        <v>38.70000076293945</v>
+        <v>37.95000076293945</v>
       </c>
       <c r="H15" t="n">
-        <v>2157000</v>
+        <v>4131663</v>
       </c>
       <c r="I15" t="n">
-        <v>37.44</v>
+        <v>37.32</v>
       </c>
       <c r="J15" t="n">
-        <v>36.12</v>
+        <v>35.65</v>
       </c>
       <c r="K15" t="n">
-        <v>34.47</v>
+        <v>33.93</v>
       </c>
       <c r="L15" t="n">
-        <v>32.5</v>
+        <v>32.16</v>
       </c>
       <c r="M15" t="n">
-        <v>29.34</v>
+        <v>29.07</v>
       </c>
       <c r="N15" t="n">
-        <v>26.65</v>
+        <v>26.43</v>
       </c>
       <c r="O15" t="n">
-        <v>26.37</v>
+        <v>26.25</v>
       </c>
       <c r="P15" t="n">
-        <v>25.44</v>
+        <v>25.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2422631578947368</v>
+        <v>0.2168421052631579</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0736165413533835</v>
+        <v>0.07289473684210532</v>
       </c>
       <c r="S15" t="n">
-        <v>3131120.1</v>
+        <v>3777352.6</v>
       </c>
       <c r="T15" t="n">
-        <v>3475674.75</v>
+        <v>3467156.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2703835.78</v>
+        <v>2729332</v>
       </c>
       <c r="V15" t="n">
-        <v>2293391.1</v>
+        <v>2288546.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2518998.556</v>
+        <v>2538433.48</v>
       </c>
       <c r="X15" t="n">
         <v>18.24</v>
       </c>
       <c r="Y15" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.03875968915836445</v>
+        <v>0.05928853635748186</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03875968915836436</v>
+        <v>0.02371535423157445</v>
       </c>
       <c r="AB15" t="b">
         <v>1</v>
@@ -2410,21 +2278,12 @@
         <v>1</v>
       </c>
       <c r="AL15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44812</v>
+        <v>44810</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2435,76 +2294,76 @@
         <v>37.40000152587891</v>
       </c>
       <c r="D16" t="n">
-        <v>41.75</v>
+        <v>38.75</v>
       </c>
       <c r="E16" t="n">
-        <v>37.25</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>40.20000076293945</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="G16" t="n">
-        <v>40.20000076293945</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="H16" t="n">
-        <v>9048000</v>
+        <v>2157000</v>
       </c>
       <c r="I16" t="n">
-        <v>37.76</v>
+        <v>37.44</v>
       </c>
       <c r="J16" t="n">
-        <v>36.63</v>
+        <v>36.12</v>
       </c>
       <c r="K16" t="n">
-        <v>35.09</v>
+        <v>34.47</v>
       </c>
       <c r="L16" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="M16" t="n">
-        <v>29.62</v>
+        <v>29.34</v>
       </c>
       <c r="N16" t="n">
-        <v>26.88</v>
+        <v>26.65</v>
       </c>
       <c r="O16" t="n">
-        <v>26.49</v>
+        <v>26.37</v>
       </c>
       <c r="P16" t="n">
-        <v>25.55</v>
+        <v>25.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2639548872180451</v>
+        <v>0.2422631578947368</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07340601503759403</v>
+        <v>0.0736165413533835</v>
       </c>
       <c r="S16" t="n">
-        <v>3643118.4</v>
+        <v>3131120.1</v>
       </c>
       <c r="T16" t="n">
-        <v>3612127.35</v>
+        <v>3475674.75</v>
       </c>
       <c r="U16" t="n">
-        <v>2804631.7</v>
+        <v>2703835.78</v>
       </c>
       <c r="V16" t="n">
-        <v>2377318.62</v>
+        <v>2293391.1</v>
       </c>
       <c r="W16" t="n">
-        <v>2526730.14</v>
+        <v>2518998.556</v>
       </c>
       <c r="X16" t="n">
         <v>18.24</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.2</v>
+        <v>38.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.03875968915836445</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.03855719421999337</v>
+        <v>0.03875968915836436</v>
       </c>
       <c r="AB16" t="b">
         <v>1</v>
@@ -2537,21 +2396,12 @@
         <v>1</v>
       </c>
       <c r="AL16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2559,67 +2409,67 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>37.40000152587891</v>
+      </c>
+      <c r="D17" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="F17" t="n">
         <v>40.20000076293945</v>
       </c>
-      <c r="D17" t="n">
+      <c r="G17" t="n">
         <v>40.20000076293945</v>
       </c>
-      <c r="E17" t="n">
-        <v>38.40000152587891</v>
-      </c>
-      <c r="F17" t="n">
-        <v>38.84999847412109</v>
-      </c>
-      <c r="G17" t="n">
-        <v>38.84999847412109</v>
-      </c>
       <c r="H17" t="n">
-        <v>4418400</v>
+        <v>9048000</v>
       </c>
       <c r="I17" t="n">
-        <v>37.9</v>
+        <v>37.76</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91</v>
+        <v>36.63</v>
       </c>
       <c r="K17" t="n">
-        <v>35.46</v>
+        <v>35.09</v>
       </c>
       <c r="L17" t="n">
-        <v>32.95</v>
+        <v>32.8</v>
       </c>
       <c r="M17" t="n">
-        <v>29.76</v>
+        <v>29.62</v>
       </c>
       <c r="N17" t="n">
-        <v>27</v>
+        <v>26.88</v>
       </c>
       <c r="O17" t="n">
-        <v>26.54</v>
+        <v>26.49</v>
       </c>
       <c r="P17" t="n">
-        <v>25.61</v>
+        <v>25.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2734661654135339</v>
+        <v>0.2639548872180451</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07270676691729325</v>
+        <v>0.07340601503759403</v>
       </c>
       <c r="S17" t="n">
-        <v>3776958.4</v>
+        <v>3643118.4</v>
       </c>
       <c r="T17" t="n">
-        <v>3696047.35</v>
+        <v>3612127.35</v>
       </c>
       <c r="U17" t="n">
-        <v>2858879.7</v>
+        <v>2804631.7</v>
       </c>
       <c r="V17" t="n">
-        <v>2410472.62</v>
+        <v>2377318.62</v>
       </c>
       <c r="W17" t="n">
-        <v>2508699.024</v>
+        <v>2526730.14</v>
       </c>
       <c r="X17" t="n">
         <v>18.24</v>
@@ -2628,10 +2478,10 @@
         <v>40.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03474909502808952</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.0604890235886747</v>
+        <v>-0.03855719421999337</v>
       </c>
       <c r="AB17" t="b">
         <v>1</v>
@@ -2664,21 +2514,12 @@
         <v>1</v>
       </c>
       <c r="AL17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44817</v>
+        <v>44813</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2686,67 +2527,67 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.65000152587891</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="D18" t="n">
         <v>40.20000076293945</v>
       </c>
       <c r="E18" t="n">
-        <v>38.20000076293945</v>
+        <v>38.40000152587891</v>
       </c>
       <c r="F18" t="n">
-        <v>40.04999923706055</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="G18" t="n">
-        <v>40.04999923706055</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="H18" t="n">
-        <v>3930000</v>
+        <v>4418400</v>
       </c>
       <c r="I18" t="n">
-        <v>38.11</v>
+        <v>37.9</v>
       </c>
       <c r="J18" t="n">
-        <v>37.22</v>
+        <v>36.91</v>
       </c>
       <c r="K18" t="n">
-        <v>35.81</v>
+        <v>35.46</v>
       </c>
       <c r="L18" t="n">
-        <v>33.13</v>
+        <v>32.95</v>
       </c>
       <c r="M18" t="n">
-        <v>29.89</v>
+        <v>29.76</v>
       </c>
       <c r="N18" t="n">
-        <v>27.13</v>
+        <v>27</v>
       </c>
       <c r="O18" t="n">
-        <v>26.61</v>
+        <v>26.54</v>
       </c>
       <c r="P18" t="n">
-        <v>25.67</v>
+        <v>25.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.281812030075188</v>
+        <v>0.2734661654135339</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07202255639097746</v>
+        <v>0.07270676691729325</v>
       </c>
       <c r="S18" t="n">
-        <v>3856558.4</v>
+        <v>3776958.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3722447.35</v>
+        <v>3696047.35</v>
       </c>
       <c r="U18" t="n">
-        <v>2881846.64</v>
+        <v>2858879.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2427566.51</v>
+        <v>2410472.62</v>
       </c>
       <c r="W18" t="n">
-        <v>2514579.024</v>
+        <v>2508699.024</v>
       </c>
       <c r="X18" t="n">
         <v>18.24</v>
@@ -2755,10 +2596,10 @@
         <v>40.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.003745356522756217</v>
+        <v>0.03474909502808952</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.06866417109579537</v>
+        <v>-0.0604890235886747</v>
       </c>
       <c r="AB18" t="b">
         <v>1</v>
@@ -2791,21 +2632,12 @@
         <v>1</v>
       </c>
       <c r="AL18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44818</v>
+        <v>44817</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2813,67 +2645,67 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>39.09999847412109</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="D19" t="n">
-        <v>41.34999847412109</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="E19" t="n">
-        <v>39.09999847412109</v>
+        <v>38.20000076293945</v>
       </c>
       <c r="F19" t="n">
-        <v>40.20000076293945</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="G19" t="n">
-        <v>40.20000076293945</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="H19" t="n">
-        <v>4347993</v>
+        <v>3930000</v>
       </c>
       <c r="I19" t="n">
-        <v>38.44</v>
+        <v>38.11</v>
       </c>
       <c r="J19" t="n">
-        <v>37.57</v>
+        <v>37.22</v>
       </c>
       <c r="K19" t="n">
-        <v>36.17</v>
+        <v>35.81</v>
       </c>
       <c r="L19" t="n">
-        <v>33.35</v>
+        <v>33.13</v>
       </c>
       <c r="M19" t="n">
-        <v>30.04</v>
+        <v>29.89</v>
       </c>
       <c r="N19" t="n">
-        <v>27.26</v>
+        <v>27.13</v>
       </c>
       <c r="O19" t="n">
-        <v>26.66</v>
+        <v>26.61</v>
       </c>
       <c r="P19" t="n">
-        <v>25.73</v>
+        <v>25.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2892330827067671</v>
+        <v>0.281812030075188</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07090977443609024</v>
+        <v>0.07202255639097746</v>
       </c>
       <c r="S19" t="n">
-        <v>4007057.7</v>
+        <v>3856558.4</v>
       </c>
       <c r="T19" t="n">
-        <v>3843597</v>
+        <v>3722447.35</v>
       </c>
       <c r="U19" t="n">
-        <v>2936888.8</v>
+        <v>2881846.64</v>
       </c>
       <c r="V19" t="n">
-        <v>2454506.44</v>
+        <v>2427566.51</v>
       </c>
       <c r="W19" t="n">
-        <v>2508616.156</v>
+        <v>2514579.024</v>
       </c>
       <c r="X19" t="n">
         <v>18.24</v>
@@ -2882,10 +2714,10 @@
         <v>40.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.01990047815616119</v>
+        <v>0.003745356522756217</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.06716419680838903</v>
+        <v>-0.06866417109579537</v>
       </c>
       <c r="AB19" t="b">
         <v>1</v>
@@ -2918,101 +2750,92 @@
         <v>1</v>
       </c>
       <c r="AL19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44809</v>
+        <v>44818</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01361.HK</t>
+          <t>01385.HK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.019999980926514</v>
+        <v>39.09999847412109</v>
       </c>
       <c r="D20" t="n">
-        <v>4.46999979019165</v>
+        <v>41.34999847412109</v>
       </c>
       <c r="E20" t="n">
-        <v>4.019999980926514</v>
+        <v>39.09999847412109</v>
       </c>
       <c r="F20" t="n">
-        <v>4.159999847412109</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="G20" t="n">
-        <v>4.159999847412109</v>
+        <v>40.20000076293945</v>
       </c>
       <c r="H20" t="n">
-        <v>5993000</v>
+        <v>4347993</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>38.44</v>
       </c>
       <c r="J20" t="n">
-        <v>4.05</v>
+        <v>37.57</v>
       </c>
       <c r="K20" t="n">
-        <v>4.01</v>
+        <v>36.17</v>
       </c>
       <c r="L20" t="n">
-        <v>4.04</v>
+        <v>33.35</v>
       </c>
       <c r="M20" t="n">
-        <v>4.02</v>
+        <v>30.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.94</v>
+        <v>27.26</v>
       </c>
       <c r="O20" t="n">
-        <v>3.91</v>
+        <v>26.66</v>
       </c>
       <c r="P20" t="n">
-        <v>3.88</v>
+        <v>25.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0003233082706766802</v>
+        <v>0.2892330827067671</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001812030075187971</v>
+        <v>0.07090977443609024</v>
       </c>
       <c r="S20" t="n">
-        <v>1925100</v>
+        <v>4007057.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1530150</v>
+        <v>3843597</v>
       </c>
       <c r="U20" t="n">
-        <v>1469448.68</v>
+        <v>2936888.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1337430.34</v>
+        <v>2454506.44</v>
       </c>
       <c r="W20" t="n">
-        <v>2459131.02</v>
+        <v>2508616.156</v>
       </c>
       <c r="X20" t="n">
-        <v>3.06</v>
+        <v>18.24</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.57</v>
+        <v>40.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.04567303504111356</v>
+        <v>-0.01990047815616119</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.06249994268783932</v>
+        <v>-0.06716419680838903</v>
       </c>
       <c r="AB20" t="b">
         <v>1</v>
@@ -3045,101 +2868,92 @@
         <v>1</v>
       </c>
       <c r="AL20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44810</v>
+        <v>44839</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01230.HK</t>
+          <t>01385.HK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.159999966621399</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="D21" t="n">
-        <v>1.169999957084656</v>
+        <v>37.90000152587891</v>
       </c>
       <c r="E21" t="n">
-        <v>1.159999966621399</v>
+        <v>36.54999923706055</v>
       </c>
       <c r="F21" t="n">
-        <v>1.169999957084656</v>
+        <v>37.59999847412109</v>
       </c>
       <c r="G21" t="n">
-        <v>1.169999957084656</v>
+        <v>37.59999847412109</v>
       </c>
       <c r="H21" t="n">
-        <v>7389000</v>
+        <v>1395000</v>
       </c>
       <c r="I21" t="n">
-        <v>1.16</v>
+        <v>36.52</v>
       </c>
       <c r="J21" t="n">
-        <v>1.15</v>
+        <v>37.63</v>
       </c>
       <c r="K21" t="n">
-        <v>1.13</v>
+        <v>37.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.1</v>
+        <v>35.55</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>31.83</v>
       </c>
       <c r="N21" t="n">
-        <v>0.93</v>
+        <v>28.83</v>
       </c>
       <c r="O21" t="n">
-        <v>0.83</v>
+        <v>27.32</v>
       </c>
       <c r="P21" t="n">
-        <v>0.78</v>
+        <v>26.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.003015037593984963</v>
+        <v>0.1555112781954886</v>
       </c>
       <c r="R21" t="n">
-        <v>0.002834586466165408</v>
+        <v>0.04890977443609022</v>
       </c>
       <c r="S21" t="n">
-        <v>1980299.3</v>
+        <v>1871823.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2832599.65</v>
+        <v>3196152.9</v>
       </c>
       <c r="U21" t="n">
-        <v>3705913.72</v>
+        <v>3166673.06</v>
       </c>
       <c r="V21" t="n">
-        <v>4709623.57</v>
+        <v>2598258.76</v>
       </c>
       <c r="W21" t="n">
-        <v>3209685.312</v>
+        <v>2496116.26</v>
       </c>
       <c r="X21" t="n">
-        <v>0.46</v>
+        <v>18.24</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.17</v>
+        <v>40.2</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.00854700070944836</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="b">
         <v>1</v>
@@ -3172,101 +2986,92 @@
         <v>1</v>
       </c>
       <c r="AL21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44823</v>
+        <v>44809</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01138.HK</t>
+          <t>01361.HK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.75</v>
+        <v>4.019999980926514</v>
       </c>
       <c r="D22" t="n">
-        <v>7.190000057220459</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E22" t="n">
-        <v>6.75</v>
+        <v>4.019999980926514</v>
       </c>
       <c r="F22" t="n">
-        <v>6.989999771118164</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="G22" t="n">
-        <v>6.989999771118164</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="H22" t="n">
-        <v>48062000</v>
+        <v>5993000</v>
       </c>
       <c r="I22" t="n">
-        <v>6.96</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>6.68</v>
+        <v>4.05</v>
       </c>
       <c r="K22" t="n">
-        <v>6.38</v>
+        <v>4.01</v>
       </c>
       <c r="L22" t="n">
-        <v>5.89</v>
+        <v>4.04</v>
       </c>
       <c r="M22" t="n">
-        <v>5.24</v>
+        <v>4.02</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>3.94</v>
       </c>
       <c r="O22" t="n">
-        <v>4.29</v>
+        <v>3.91</v>
       </c>
       <c r="P22" t="n">
-        <v>4.12</v>
+        <v>3.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04374436090225563</v>
+        <v>0.0003233082706766802</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01786466165413534</v>
+        <v>0.001812030075187971</v>
       </c>
       <c r="S22" t="n">
-        <v>32797851.3</v>
+        <v>1925100</v>
       </c>
       <c r="T22" t="n">
-        <v>32466690.65</v>
+        <v>1530150</v>
       </c>
       <c r="U22" t="n">
-        <v>27187873.36</v>
+        <v>1469448.68</v>
       </c>
       <c r="V22" t="n">
-        <v>26657470.01</v>
+        <v>1337430.34</v>
       </c>
       <c r="W22" t="n">
-        <v>17722583.172</v>
+        <v>2459131.02</v>
       </c>
       <c r="X22" t="n">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.22</v>
+        <v>4.57</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>-0.04567303504111356</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01144497899324182</v>
+        <v>-0.06249994268783932</v>
       </c>
       <c r="AB22" t="b">
         <v>1</v>
@@ -3299,101 +3104,92 @@
         <v>1</v>
       </c>
       <c r="AL22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01138.HK</t>
+          <t>01230.HK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.159999847412109</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="D23" t="n">
-        <v>7.449999809265137</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="E23" t="n">
-        <v>7.039999961853027</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="F23" t="n">
-        <v>7.400000095367432</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="G23" t="n">
-        <v>7.400000095367432</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="H23" t="n">
-        <v>55498050</v>
+        <v>7389000</v>
       </c>
       <c r="I23" t="n">
-        <v>7.01</v>
+        <v>1.16</v>
       </c>
       <c r="J23" t="n">
-        <v>6.71</v>
+        <v>1.15</v>
       </c>
       <c r="K23" t="n">
-        <v>6.45</v>
+        <v>1.13</v>
       </c>
       <c r="L23" t="n">
-        <v>5.95</v>
+        <v>1.1</v>
       </c>
       <c r="M23" t="n">
-        <v>5.28</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.73</v>
+        <v>0.93</v>
       </c>
       <c r="O23" t="n">
-        <v>4.31</v>
+        <v>0.83</v>
       </c>
       <c r="P23" t="n">
-        <v>4.14</v>
+        <v>0.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04365413533834587</v>
+        <v>0.003015037593984963</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01816541353383459</v>
+        <v>0.002834586466165408</v>
       </c>
       <c r="S23" t="n">
-        <v>34222656.3</v>
+        <v>1980299.3</v>
       </c>
       <c r="T23" t="n">
-        <v>32808553.15</v>
+        <v>2832599.65</v>
       </c>
       <c r="U23" t="n">
-        <v>28121434.36</v>
+        <v>3705913.72</v>
       </c>
       <c r="V23" t="n">
-        <v>26901507.94</v>
+        <v>4709623.57</v>
       </c>
       <c r="W23" t="n">
-        <v>17864167.372</v>
+        <v>3209685.312</v>
       </c>
       <c r="X23" t="n">
-        <v>2.9</v>
+        <v>0.46</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.4</v>
+        <v>1.17</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.009459482535033814</v>
+        <v>-0.00854700070944836</v>
       </c>
       <c r="AB23" t="b">
         <v>1</v>
@@ -3426,101 +3222,92 @@
         <v>1</v>
       </c>
       <c r="AL23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44820</v>
+        <v>44811</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01230.HK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.510000228881836</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="D24" t="n">
-        <v>8.619999885559082</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="E24" t="n">
-        <v>8.510000228881836</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="F24" t="n">
-        <v>8.550000190734863</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="G24" t="n">
-        <v>8.550000190734863</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="H24" t="n">
-        <v>5674909</v>
+        <v>442000</v>
       </c>
       <c r="I24" t="n">
-        <v>8.380000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="J24" t="n">
-        <v>8.369999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="K24" t="n">
-        <v>8.449999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="L24" t="n">
-        <v>8.4</v>
+        <v>1.11</v>
       </c>
       <c r="M24" t="n">
-        <v>8.199999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>7.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>7.54</v>
+        <v>0.84</v>
       </c>
       <c r="P24" t="n">
-        <v>7.43</v>
+        <v>0.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0003609022556390901</v>
+        <v>0.003075187969924809</v>
       </c>
       <c r="R24" t="n">
-        <v>0.005330827067669174</v>
+        <v>0.002924812030075183</v>
       </c>
       <c r="S24" t="n">
-        <v>7461282.1</v>
+        <v>1951499.3</v>
       </c>
       <c r="T24" t="n">
-        <v>6380118.15</v>
+        <v>2809199.65</v>
       </c>
       <c r="U24" t="n">
-        <v>7766722.7</v>
+        <v>3504573.72</v>
       </c>
       <c r="V24" t="n">
-        <v>9071894.01</v>
+        <v>4708903.57</v>
       </c>
       <c r="W24" t="n">
-        <v>8025808.096</v>
+        <v>3198257.312</v>
       </c>
       <c r="X24" t="n">
-        <v>6.17</v>
+        <v>0.46</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.789999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.04678358007099576</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04327483945088439</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="b">
         <v>1</v>
@@ -3553,101 +3340,92 @@
         <v>1</v>
       </c>
       <c r="AL24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44823</v>
+        <v>44819</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01230.HK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.640000343322754</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="D25" t="n">
-        <v>8.779999732971191</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="E25" t="n">
-        <v>8.609999656677246</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="F25" t="n">
-        <v>8.640000343322754</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="G25" t="n">
-        <v>8.640000343322754</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="H25" t="n">
-        <v>20041998</v>
+        <v>308000</v>
       </c>
       <c r="I25" t="n">
-        <v>8.42</v>
+        <v>1.16</v>
       </c>
       <c r="J25" t="n">
-        <v>8.369999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="K25" t="n">
-        <v>8.460000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="L25" t="n">
-        <v>8.4</v>
+        <v>1.11</v>
       </c>
       <c r="M25" t="n">
-        <v>8.210000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7.91</v>
+        <v>0.96</v>
       </c>
       <c r="O25" t="n">
-        <v>7.54</v>
+        <v>0.85</v>
       </c>
       <c r="P25" t="n">
-        <v>7.44</v>
+        <v>0.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.00345112781954886</v>
       </c>
       <c r="R25" t="n">
-        <v>0.005383458646616538</v>
+        <v>0.002924812030075183</v>
       </c>
       <c r="S25" t="n">
-        <v>8924828.6</v>
+        <v>3181907.3</v>
       </c>
       <c r="T25" t="n">
-        <v>7253335.35</v>
+        <v>2371003.65</v>
       </c>
       <c r="U25" t="n">
-        <v>8064194.4</v>
+        <v>3441295.14</v>
       </c>
       <c r="V25" t="n">
-        <v>9101076.23</v>
+        <v>4851874.37</v>
       </c>
       <c r="W25" t="n">
-        <v>8089656.18</v>
+        <v>3249953.632</v>
       </c>
       <c r="X25" t="n">
-        <v>6.17</v>
+        <v>0.46</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.789999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.009259250061012025</v>
+        <v>-0.00854700070944836</v>
       </c>
       <c r="AB25" t="b">
         <v>1</v>
@@ -3680,101 +3458,92 @@
         <v>1</v>
       </c>
       <c r="AL25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44824</v>
+        <v>44831</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01230.HK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.760000228881836</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="D26" t="n">
-        <v>8.930000305175781</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="E26" t="n">
-        <v>8.640000343322754</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="F26" t="n">
-        <v>8.829999923706055</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="G26" t="n">
-        <v>8.829999923706055</v>
+        <v>1.169999957084656</v>
       </c>
       <c r="H26" t="n">
-        <v>25168363</v>
+        <v>1353000</v>
       </c>
       <c r="I26" t="n">
-        <v>8.470000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="J26" t="n">
-        <v>8.380000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="K26" t="n">
-        <v>8.460000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="L26" t="n">
-        <v>8.41</v>
+        <v>1.13</v>
       </c>
       <c r="M26" t="n">
-        <v>8.220000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7.92</v>
+        <v>0.99</v>
       </c>
       <c r="O26" t="n">
-        <v>7.55</v>
+        <v>0.88</v>
       </c>
       <c r="P26" t="n">
-        <v>7.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.001593984962406029</v>
+        <v>0.002744360902255629</v>
       </c>
       <c r="R26" t="n">
-        <v>0.005413533834586455</v>
+        <v>0.003067669172932335</v>
       </c>
       <c r="S26" t="n">
-        <v>10765832.4</v>
+        <v>1724599.3</v>
       </c>
       <c r="T26" t="n">
-        <v>8319290.7</v>
+        <v>2344803.3</v>
       </c>
       <c r="U26" t="n">
-        <v>8490222.359999999</v>
+        <v>3230521.32</v>
       </c>
       <c r="V26" t="n">
-        <v>9193923.4</v>
+        <v>4790354.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8177901.232</v>
+        <v>3210277.604</v>
       </c>
       <c r="X26" t="n">
-        <v>6.17</v>
+        <v>0.46</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.83</v>
+        <v>1.17</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01359002113204055</v>
+        <v>-0.00854700070944836</v>
       </c>
       <c r="AB26" t="b">
         <v>1</v>
@@ -3807,101 +3576,92 @@
         <v>1</v>
       </c>
       <c r="AL26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44825</v>
+        <v>44823</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01138.HK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.840000152587891</v>
+        <v>6.75</v>
       </c>
       <c r="D27" t="n">
-        <v>9.199999809265137</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E27" t="n">
-        <v>8.739999771118164</v>
+        <v>6.75</v>
       </c>
       <c r="F27" t="n">
-        <v>8.939999580383301</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="G27" t="n">
-        <v>8.939999580383301</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="H27" t="n">
-        <v>36978168</v>
+        <v>48062000</v>
       </c>
       <c r="I27" t="n">
-        <v>8.539999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="J27" t="n">
-        <v>8.41</v>
+        <v>6.68</v>
       </c>
       <c r="K27" t="n">
-        <v>8.48</v>
+        <v>6.38</v>
       </c>
       <c r="L27" t="n">
-        <v>8.42</v>
+        <v>5.89</v>
       </c>
       <c r="M27" t="n">
-        <v>8.23</v>
+        <v>5.24</v>
       </c>
       <c r="N27" t="n">
-        <v>7.93</v>
+        <v>4.7</v>
       </c>
       <c r="O27" t="n">
-        <v>7.57</v>
+        <v>4.29</v>
       </c>
       <c r="P27" t="n">
-        <v>7.45</v>
+        <v>4.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.002428571428571445</v>
+        <v>0.04374436090225563</v>
       </c>
       <c r="R27" t="n">
-        <v>0.00570676691729323</v>
+        <v>0.01786466165413534</v>
       </c>
       <c r="S27" t="n">
-        <v>13971105.1</v>
+        <v>32797851.3</v>
       </c>
       <c r="T27" t="n">
-        <v>9847755.4</v>
+        <v>32466690.65</v>
       </c>
       <c r="U27" t="n">
-        <v>9059044.460000001</v>
+        <v>27187873.36</v>
       </c>
       <c r="V27" t="n">
-        <v>9410610.939999999</v>
+        <v>26657470.01</v>
       </c>
       <c r="W27" t="n">
-        <v>8315649.904</v>
+        <v>17722583.172</v>
       </c>
       <c r="X27" t="n">
-        <v>6.17</v>
+        <v>2.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.94</v>
+        <v>7.22</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>0.1702432865555384</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.05145414538456283</v>
+        <v>0.01144497899324182</v>
       </c>
       <c r="AB27" t="b">
         <v>1</v>
@@ -3934,101 +3694,92 @@
         <v>1</v>
       </c>
       <c r="AL27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00293.HK</t>
+          <t>01138.HK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.859999656677246</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="D28" t="n">
-        <v>8.899999618530273</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E28" t="n">
-        <v>8.720000267028809</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F28" t="n">
-        <v>8.829999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="G28" t="n">
-        <v>8.829999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="H28" t="n">
-        <v>13127777</v>
+        <v>55498050</v>
       </c>
       <c r="I28" t="n">
-        <v>8.609999999999999</v>
+        <v>7.01</v>
       </c>
       <c r="J28" t="n">
-        <v>8.43</v>
+        <v>6.71</v>
       </c>
       <c r="K28" t="n">
-        <v>8.49</v>
+        <v>6.45</v>
       </c>
       <c r="L28" t="n">
-        <v>8.43</v>
+        <v>5.95</v>
       </c>
       <c r="M28" t="n">
-        <v>8.24</v>
+        <v>5.28</v>
       </c>
       <c r="N28" t="n">
-        <v>7.95</v>
+        <v>4.73</v>
       </c>
       <c r="O28" t="n">
-        <v>7.58</v>
+        <v>4.31</v>
       </c>
       <c r="P28" t="n">
-        <v>7.46</v>
+        <v>4.14</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003330827067669188</v>
+        <v>0.04365413533834587</v>
       </c>
       <c r="R28" t="n">
-        <v>0.006105263157894738</v>
+        <v>0.01816541353383459</v>
       </c>
       <c r="S28" t="n">
-        <v>14780951.9</v>
+        <v>34222656.3</v>
       </c>
       <c r="T28" t="n">
-        <v>10060116.4</v>
+        <v>32808553.15</v>
       </c>
       <c r="U28" t="n">
-        <v>9105366.08</v>
+        <v>28121434.36</v>
       </c>
       <c r="V28" t="n">
-        <v>9497608.710000001</v>
+        <v>26901507.94</v>
       </c>
       <c r="W28" t="n">
-        <v>8355713.22</v>
+        <v>17864167.372</v>
       </c>
       <c r="X28" t="n">
-        <v>6.17</v>
+        <v>2.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.94</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.1054054323994735</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.05549261329013755</v>
+        <v>-0.009459482535033814</v>
       </c>
       <c r="AB28" t="b">
         <v>1</v>
@@ -4061,21 +3812,12 @@
         <v>1</v>
       </c>
       <c r="AL28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44827</v>
+        <v>44820</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4083,79 +3825,79 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.880000114440918</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="D29" t="n">
-        <v>9.149999618530273</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E29" t="n">
-        <v>8.829999923706055</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="F29" t="n">
-        <v>8.920000076293945</v>
+        <v>8.550000190734863</v>
       </c>
       <c r="G29" t="n">
-        <v>8.920000076293945</v>
+        <v>8.550000190734863</v>
       </c>
       <c r="H29" t="n">
-        <v>49466685</v>
+        <v>5674909</v>
       </c>
       <c r="I29" t="n">
-        <v>8.67</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="J29" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="K29" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="K29" t="n">
-        <v>8.49</v>
-      </c>
       <c r="L29" t="n">
-        <v>8.44</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N29" t="n">
-        <v>7.96</v>
+        <v>7.9</v>
       </c>
       <c r="O29" t="n">
-        <v>7.59</v>
+        <v>7.54</v>
       </c>
       <c r="P29" t="n">
-        <v>7.47</v>
+        <v>7.43</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.004142857142857155</v>
+        <v>0.0003609022556390901</v>
       </c>
       <c r="R29" t="n">
-        <v>0.006451127819548873</v>
+        <v>0.005330827067669174</v>
       </c>
       <c r="S29" t="n">
-        <v>18922770.9</v>
+        <v>7461282.1</v>
       </c>
       <c r="T29" t="n">
-        <v>12462027.15</v>
+        <v>6380118.15</v>
       </c>
       <c r="U29" t="n">
-        <v>9940836.880000001</v>
+        <v>7766722.7</v>
       </c>
       <c r="V29" t="n">
-        <v>9918811.029999999</v>
+        <v>9071894.01</v>
       </c>
       <c r="W29" t="n">
-        <v>8536484.988</v>
+        <v>8025808.096</v>
       </c>
       <c r="X29" t="n">
         <v>6.17</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.94</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.04678358007099576</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.07174891679918671</v>
+        <v>0.04327483945088439</v>
       </c>
       <c r="AB29" t="b">
         <v>1</v>
@@ -4188,21 +3930,12 @@
         <v>1</v>
       </c>
       <c r="AL29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44831</v>
+        <v>44823</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4210,79 +3943,79 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.739999771118164</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="D30" t="n">
-        <v>8.979999542236328</v>
+        <v>8.779999732971191</v>
       </c>
       <c r="E30" t="n">
-        <v>8.739999771118164</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="F30" t="n">
-        <v>8.949999809265137</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="G30" t="n">
-        <v>8.949999809265137</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="H30" t="n">
-        <v>20441895</v>
+        <v>20041998</v>
       </c>
       <c r="I30" t="n">
-        <v>8.75</v>
+        <v>8.42</v>
       </c>
       <c r="J30" t="n">
-        <v>8.51</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>8.51</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>8.460000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M30" t="n">
-        <v>8.26</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>7.98</v>
+        <v>7.91</v>
       </c>
       <c r="O30" t="n">
-        <v>7.62</v>
+        <v>7.54</v>
       </c>
       <c r="P30" t="n">
-        <v>7.49</v>
+        <v>7.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.005751879699248119</v>
+        <v>0.001000000000000004</v>
       </c>
       <c r="R30" t="n">
-        <v>0.007556390977443601</v>
+        <v>0.005383458646616538</v>
       </c>
       <c r="S30" t="n">
-        <v>21099944.4</v>
+        <v>8924828.6</v>
       </c>
       <c r="T30" t="n">
-        <v>14195966.95</v>
+        <v>7253335.35</v>
       </c>
       <c r="U30" t="n">
-        <v>10558313.16</v>
+        <v>8064194.4</v>
       </c>
       <c r="V30" t="n">
-        <v>10232096.45</v>
+        <v>9101076.23</v>
       </c>
       <c r="W30" t="n">
-        <v>8694934.468</v>
+        <v>8089656.18</v>
       </c>
       <c r="X30" t="n">
         <v>6.17</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.949999999999999</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>0.03587956639167954</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>0.009259250061012025</v>
       </c>
       <c r="AB30" t="b">
         <v>1</v>
@@ -4315,101 +4048,92 @@
         <v>1</v>
       </c>
       <c r="AL30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44811</v>
+        <v>44824</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00123.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10.39999961853027</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="D31" t="n">
-        <v>10.5</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="E31" t="n">
-        <v>10.27999973297119</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="F31" t="n">
-        <v>10.42000007629395</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="G31" t="n">
-        <v>10.42000007629395</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="H31" t="n">
-        <v>3094762</v>
+        <v>25168363</v>
       </c>
       <c r="I31" t="n">
-        <v>10.01</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>9.720000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>9.66</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>9.68</v>
+        <v>8.41</v>
       </c>
       <c r="M31" t="n">
-        <v>9.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>8.710000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="O31" t="n">
-        <v>8.33</v>
+        <v>7.55</v>
       </c>
       <c r="P31" t="n">
-        <v>8.09</v>
+        <v>7.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001969924812030056</v>
+        <v>0.001593984962406029</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01447368421052632</v>
+        <v>0.005413533834586455</v>
       </c>
       <c r="S31" t="n">
-        <v>5553798.9</v>
+        <v>10765832.4</v>
       </c>
       <c r="T31" t="n">
-        <v>4404403.65</v>
+        <v>8319290.7</v>
       </c>
       <c r="U31" t="n">
-        <v>5125641.24</v>
+        <v>8490222.359999999</v>
       </c>
       <c r="V31" t="n">
-        <v>4803052.52</v>
+        <v>9193923.4</v>
       </c>
       <c r="W31" t="n">
-        <v>3964077.516</v>
+        <v>8177901.232</v>
       </c>
       <c r="X31" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.42</v>
+        <v>8.83</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.0537427506566346</v>
+        <v>0.01359002113204058</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.05374275065663459</v>
+        <v>0.01359002113204055</v>
       </c>
       <c r="AB31" t="b">
         <v>1</v>
@@ -4442,101 +4166,92 @@
         <v>1</v>
       </c>
       <c r="AL31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44812</v>
+        <v>44825</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00123.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10.46000003814697</v>
+        <v>8.840000152587891</v>
       </c>
       <c r="D32" t="n">
-        <v>10.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="E32" t="n">
-        <v>10.26000022888184</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F32" t="n">
-        <v>10.30000019073486</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="G32" t="n">
-        <v>10.30000019073486</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="H32" t="n">
-        <v>4247888</v>
+        <v>36978168</v>
       </c>
       <c r="I32" t="n">
-        <v>10.07</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>9.77</v>
+        <v>8.41</v>
       </c>
       <c r="K32" t="n">
-        <v>9.67</v>
+        <v>8.48</v>
       </c>
       <c r="L32" t="n">
-        <v>9.69</v>
+        <v>8.42</v>
       </c>
       <c r="M32" t="n">
-        <v>9.08</v>
+        <v>8.23</v>
       </c>
       <c r="N32" t="n">
-        <v>8.720000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="O32" t="n">
-        <v>8.34</v>
+        <v>7.57</v>
       </c>
       <c r="P32" t="n">
-        <v>8.1</v>
+        <v>7.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.004616541353383455</v>
+        <v>0.002428571428571445</v>
       </c>
       <c r="R32" t="n">
-        <v>0.01466917293233083</v>
+        <v>0.00570676691729323</v>
       </c>
       <c r="S32" t="n">
-        <v>5779006.7</v>
+        <v>13971105.1</v>
       </c>
       <c r="T32" t="n">
-        <v>4432771.85</v>
+        <v>9847755.4</v>
       </c>
       <c r="U32" t="n">
-        <v>4916734.86</v>
+        <v>9059044.460000001</v>
       </c>
       <c r="V32" t="n">
-        <v>4815918.24</v>
+        <v>9410610.939999999</v>
       </c>
       <c r="W32" t="n">
-        <v>3970510.236</v>
+        <v>8315649.904</v>
       </c>
       <c r="X32" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.42</v>
+        <v>8.94</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.06601935329216292</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04271840507139912</v>
+        <v>-0.05145414538456283</v>
       </c>
       <c r="AB32" t="b">
         <v>1</v>
@@ -4569,101 +4284,92 @@
         <v>1</v>
       </c>
       <c r="AL32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44813</v>
+        <v>44826</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00123.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10.23999977111816</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="D33" t="n">
-        <v>10.80000019073486</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E33" t="n">
-        <v>10.23999977111816</v>
+        <v>8.720000267028809</v>
       </c>
       <c r="F33" t="n">
-        <v>10.68000030517578</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="G33" t="n">
-        <v>10.68000030517578</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="H33" t="n">
-        <v>11776488</v>
+        <v>13127777</v>
       </c>
       <c r="I33" t="n">
-        <v>10.14</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>9.84</v>
+        <v>8.43</v>
       </c>
       <c r="K33" t="n">
-        <v>9.699999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="L33" t="n">
-        <v>9.699999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="M33" t="n">
-        <v>9.09</v>
+        <v>8.24</v>
       </c>
       <c r="N33" t="n">
-        <v>8.74</v>
+        <v>7.95</v>
       </c>
       <c r="O33" t="n">
-        <v>8.359999999999999</v>
+        <v>7.58</v>
       </c>
       <c r="P33" t="n">
-        <v>8.109999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.007315789473684194</v>
+        <v>0.003330827067669188</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01488721804511278</v>
+        <v>0.006105263157894738</v>
       </c>
       <c r="S33" t="n">
-        <v>6285053.1</v>
+        <v>14780951.9</v>
       </c>
       <c r="T33" t="n">
-        <v>4865075.15</v>
+        <v>10060116.4</v>
       </c>
       <c r="U33" t="n">
-        <v>4919019.5</v>
+        <v>9105366.08</v>
       </c>
       <c r="V33" t="n">
-        <v>4871746.25</v>
+        <v>9497608.710000001</v>
       </c>
       <c r="W33" t="n">
-        <v>4010938.584</v>
+        <v>8355713.22</v>
       </c>
       <c r="X33" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.68</v>
+        <v>8.94</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02808981540151865</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01310864600396155</v>
+        <v>-0.05549261329013755</v>
       </c>
       <c r="AB33" t="b">
         <v>1</v>
@@ -4696,101 +4402,92 @@
         <v>1</v>
       </c>
       <c r="AL33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44817</v>
+        <v>44827</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00123.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.69999980926514</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="D34" t="n">
-        <v>10.77999973297119</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E34" t="n">
-        <v>10.4399995803833</v>
+        <v>8.829999923706055</v>
       </c>
       <c r="F34" t="n">
-        <v>10.64000034332275</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="G34" t="n">
-        <v>10.64000034332275</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="H34" t="n">
-        <v>3699503</v>
+        <v>49466685</v>
       </c>
       <c r="I34" t="n">
-        <v>10.21</v>
+        <v>8.67</v>
       </c>
       <c r="J34" t="n">
-        <v>9.91</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>9.73</v>
+        <v>8.49</v>
       </c>
       <c r="L34" t="n">
-        <v>9.710000000000001</v>
+        <v>8.44</v>
       </c>
       <c r="M34" t="n">
-        <v>9.109999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="N34" t="n">
-        <v>8.76</v>
+        <v>7.96</v>
       </c>
       <c r="O34" t="n">
-        <v>8.380000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="P34" t="n">
-        <v>8.119999999999999</v>
+        <v>7.47</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.009834586466165411</v>
+        <v>0.004142857142857155</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01511278195488723</v>
+        <v>0.006451127819548873</v>
       </c>
       <c r="S34" t="n">
-        <v>6274859.3</v>
+        <v>18922770.9</v>
       </c>
       <c r="T34" t="n">
-        <v>5006525</v>
+        <v>12462027.15</v>
       </c>
       <c r="U34" t="n">
-        <v>4812068.32</v>
+        <v>9940836.880000001</v>
       </c>
       <c r="V34" t="n">
-        <v>4872116.07</v>
+        <v>9918811.029999999</v>
       </c>
       <c r="W34" t="n">
-        <v>4020911.556</v>
+        <v>8536484.988</v>
       </c>
       <c r="X34" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.68</v>
+        <v>8.94</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0319548108968765</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.001879742210367685</v>
+        <v>-0.07174891679918671</v>
       </c>
       <c r="AB34" t="b">
         <v>1</v>
@@ -4823,101 +4520,92 @@
         <v>1</v>
       </c>
       <c r="AL34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44818</v>
+        <v>44831</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00123.HK</t>
+          <t>00293.HK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.46000003814697</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="D35" t="n">
-        <v>10.69999980926514</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="E35" t="n">
-        <v>10.42000007629395</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="F35" t="n">
-        <v>10.60000038146973</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="G35" t="n">
-        <v>10.60000038146973</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="H35" t="n">
-        <v>4049938</v>
+        <v>20441895</v>
       </c>
       <c r="I35" t="n">
-        <v>10.27</v>
+        <v>8.75</v>
       </c>
       <c r="J35" t="n">
-        <v>9.970000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="K35" t="n">
-        <v>9.76</v>
+        <v>8.51</v>
       </c>
       <c r="L35" t="n">
-        <v>9.720000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>9.130000000000001</v>
+        <v>8.26</v>
       </c>
       <c r="N35" t="n">
-        <v>8.779999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="O35" t="n">
-        <v>8.4</v>
+        <v>7.62</v>
       </c>
       <c r="P35" t="n">
-        <v>8.140000000000001</v>
+        <v>7.49</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01224060150375941</v>
+        <v>0.005751879699248119</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01533082706766918</v>
+        <v>0.007556390977443601</v>
       </c>
       <c r="S35" t="n">
-        <v>6081858.4</v>
+        <v>21099944.4</v>
       </c>
       <c r="T35" t="n">
-        <v>4924484.7</v>
+        <v>14195966.95</v>
       </c>
       <c r="U35" t="n">
-        <v>4758042.86</v>
+        <v>10558313.16</v>
       </c>
       <c r="V35" t="n">
-        <v>4867630.42</v>
+        <v>10232096.45</v>
       </c>
       <c r="W35" t="n">
-        <v>4029498.556</v>
+        <v>8694934.468</v>
       </c>
       <c r="X35" t="n">
-        <v>6.51</v>
+        <v>6.17</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.68</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03584897614068873</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.005660416741266383</v>
+        <v>-0.06815638767341292</v>
       </c>
       <c r="AB35" t="b">
         <v>1</v>
@@ -4950,21 +4638,12 @@
         <v>1</v>
       </c>
       <c r="AL35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44826</v>
+        <v>44811</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4975,76 +4654,76 @@
         <v>10.39999961853027</v>
       </c>
       <c r="D36" t="n">
-        <v>10.77999973297119</v>
+        <v>10.5</v>
       </c>
       <c r="E36" t="n">
-        <v>10.26000022888184</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="F36" t="n">
-        <v>10.64000034332275</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="G36" t="n">
-        <v>10.64000034332275</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="H36" t="n">
-        <v>5357291</v>
+        <v>3094762</v>
       </c>
       <c r="I36" t="n">
-        <v>10.63</v>
+        <v>10.01</v>
       </c>
       <c r="J36" t="n">
-        <v>10.32</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>10.02</v>
+        <v>9.66</v>
       </c>
       <c r="L36" t="n">
-        <v>9.83</v>
+        <v>9.68</v>
       </c>
       <c r="M36" t="n">
-        <v>9.279999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="N36" t="n">
-        <v>8.880000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>8.5</v>
+        <v>8.33</v>
       </c>
       <c r="P36" t="n">
-        <v>8.220000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02728571428571431</v>
+        <v>0.001969924812030056</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01612781954887218</v>
+        <v>0.01447368421052632</v>
       </c>
       <c r="S36" t="n">
-        <v>5858139.4</v>
+        <v>5553798.9</v>
       </c>
       <c r="T36" t="n">
-        <v>5705969.15</v>
+        <v>4404403.65</v>
       </c>
       <c r="U36" t="n">
-        <v>4693161.14</v>
+        <v>5125641.24</v>
       </c>
       <c r="V36" t="n">
-        <v>5016693.18</v>
+        <v>4803052.52</v>
       </c>
       <c r="W36" t="n">
-        <v>4095769.236</v>
+        <v>3964077.516</v>
       </c>
       <c r="X36" t="n">
         <v>6.51</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.98</v>
+        <v>10.42</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>0.0537427506566346</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.1071428859528346</v>
+        <v>0.05374275065663459</v>
       </c>
       <c r="AB36" t="b">
         <v>1</v>
@@ -5077,101 +4756,92 @@
         <v>1</v>
       </c>
       <c r="AL36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO36" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44810</v>
+        <v>44812</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>00123.HK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9.079999923706055</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D37" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="E37" t="n">
-        <v>9.079999923706055</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="F37" t="n">
-        <v>9.119999885559082</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="G37" t="n">
-        <v>8.889999389648438</v>
+        <v>10.30000019073486</v>
       </c>
       <c r="H37" t="n">
-        <v>1540000</v>
+        <v>4247888</v>
       </c>
       <c r="I37" t="n">
-        <v>9.17</v>
+        <v>10.07</v>
       </c>
       <c r="J37" t="n">
-        <v>8.960000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="K37" t="n">
-        <v>8.41</v>
+        <v>9.67</v>
       </c>
       <c r="L37" t="n">
-        <v>8.15</v>
+        <v>9.69</v>
       </c>
       <c r="M37" t="n">
-        <v>7.91</v>
+        <v>9.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7.84</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>7.79</v>
+        <v>8.34</v>
       </c>
       <c r="P37" t="n">
-        <v>7.85</v>
+        <v>8.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04537593984962406</v>
+        <v>0.004616541353383455</v>
       </c>
       <c r="R37" t="n">
-        <v>0.004714285714285718</v>
+        <v>0.01466917293233083</v>
       </c>
       <c r="S37" t="n">
-        <v>1901142.9</v>
+        <v>5779006.7</v>
       </c>
       <c r="T37" t="n">
-        <v>4387724.15</v>
+        <v>4432771.85</v>
       </c>
       <c r="U37" t="n">
-        <v>2391109.06</v>
+        <v>4916734.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1441827.29</v>
+        <v>4815918.24</v>
       </c>
       <c r="W37" t="n">
-        <v>950698.552</v>
+        <v>3970510.236</v>
       </c>
       <c r="X37" t="n">
-        <v>6.92</v>
+        <v>6.51</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.380000000000001</v>
+        <v>10.42</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01644743136917204</v>
+        <v>0.06601935329216292</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.01206136601508334</v>
+        <v>0.04271840507139912</v>
       </c>
       <c r="AB37" t="b">
         <v>1</v>
@@ -5204,15 +4874,6 @@
         <v>1</v>
       </c>
       <c r="AL37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5222,83 +4883,83 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>00123.HK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9.029999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="D38" t="n">
-        <v>9.189999580383301</v>
+        <v>10.80000019073486</v>
       </c>
       <c r="E38" t="n">
-        <v>9.029999732971191</v>
+        <v>10.23999977111816</v>
       </c>
       <c r="F38" t="n">
-        <v>9.159999847412109</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="G38" t="n">
-        <v>9.159999847412109</v>
+        <v>10.68000030517578</v>
       </c>
       <c r="H38" t="n">
-        <v>1465000</v>
+        <v>11776488</v>
       </c>
       <c r="I38" t="n">
-        <v>9.109999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="J38" t="n">
-        <v>9.119999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="K38" t="n">
-        <v>8.57</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>8.220000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M38" t="n">
-        <v>7.96</v>
+        <v>9.09</v>
       </c>
       <c r="N38" t="n">
-        <v>7.87</v>
+        <v>8.74</v>
       </c>
       <c r="O38" t="n">
-        <v>7.8</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>7.86</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04983458646616543</v>
+        <v>0.007315789473684194</v>
       </c>
       <c r="R38" t="n">
-        <v>0.005030075187969922</v>
+        <v>0.01488721804511278</v>
       </c>
       <c r="S38" t="n">
-        <v>1390477.7</v>
+        <v>6285053.1</v>
       </c>
       <c r="T38" t="n">
-        <v>3807285.05</v>
+        <v>4865075.15</v>
       </c>
       <c r="U38" t="n">
-        <v>2417566.34</v>
+        <v>4919019.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1468600.77</v>
+        <v>4871746.25</v>
       </c>
       <c r="W38" t="n">
-        <v>966040.572</v>
+        <v>4010938.584</v>
       </c>
       <c r="X38" t="n">
-        <v>6.92</v>
+        <v>6.51</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.380000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0120088004567642</v>
+        <v>0.02808981540151865</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.02074231261444615</v>
+        <v>-0.01310864600396155</v>
       </c>
       <c r="AB38" t="b">
         <v>1</v>
@@ -5331,15 +4992,6 @@
         <v>1</v>
       </c>
       <c r="AL38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5349,83 +5001,83 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>00123.HK</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.180000305175781</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="D39" t="n">
-        <v>9.369999885559082</v>
+        <v>10.77999973297119</v>
       </c>
       <c r="E39" t="n">
-        <v>8.859999656677246</v>
+        <v>10.4399995803833</v>
       </c>
       <c r="F39" t="n">
-        <v>9.25</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="G39" t="n">
-        <v>9.25</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="H39" t="n">
-        <v>5692899</v>
+        <v>3699503</v>
       </c>
       <c r="I39" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="M39" t="n">
         <v>9.109999999999999</v>
       </c>
-      <c r="J39" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>7.97</v>
-      </c>
       <c r="N39" t="n">
-        <v>7.88</v>
+        <v>8.76</v>
       </c>
       <c r="O39" t="n">
-        <v>7.81</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="P39" t="n">
-        <v>7.86</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.05107518796992484</v>
+        <v>0.009834586466165411</v>
       </c>
       <c r="R39" t="n">
-        <v>0.00506015037593984</v>
+        <v>0.01511278195488723</v>
       </c>
       <c r="S39" t="n">
-        <v>1907767.6</v>
+        <v>6274859.3</v>
       </c>
       <c r="T39" t="n">
-        <v>3527978.7</v>
+        <v>5006525</v>
       </c>
       <c r="U39" t="n">
-        <v>2508991.76</v>
+        <v>4812068.32</v>
       </c>
       <c r="V39" t="n">
-        <v>1523229.76</v>
+        <v>4872116.07</v>
       </c>
       <c r="W39" t="n">
-        <v>987528.1679999999</v>
+        <v>4020911.556</v>
       </c>
       <c r="X39" t="n">
-        <v>6.92</v>
+        <v>6.51</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.380000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.002162211650126689</v>
+        <v>0.0319548108968765</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.002162211650126755</v>
+        <v>-0.001879742210367685</v>
       </c>
       <c r="AB39" t="b">
         <v>1</v>
@@ -5458,101 +5110,92 @@
         <v>1</v>
       </c>
       <c r="AL39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44824</v>
+        <v>44818</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>00123.HK</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9.050000190734863</v>
+        <v>10.46000003814697</v>
       </c>
       <c r="D40" t="n">
-        <v>9.289999961853027</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F40" t="n">
-        <v>9.270000457763672</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="G40" t="n">
-        <v>9.270000457763672</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="H40" t="n">
-        <v>8696520</v>
+        <v>4049938</v>
       </c>
       <c r="I40" t="n">
-        <v>9.07</v>
+        <v>10.27</v>
       </c>
       <c r="J40" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="M40" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="K40" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="M40" t="n">
-        <v>8.050000000000001</v>
-      </c>
       <c r="N40" t="n">
-        <v>7.91</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>7.84</v>
+        <v>8.4</v>
       </c>
       <c r="P40" t="n">
-        <v>7.88</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05524812030075187</v>
+        <v>0.01224060150375941</v>
       </c>
       <c r="R40" t="n">
-        <v>0.005225563909774435</v>
+        <v>0.01533082706766918</v>
       </c>
       <c r="S40" t="n">
-        <v>2527262</v>
+        <v>6081858.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2355341.95</v>
+        <v>4924484.7</v>
       </c>
       <c r="U40" t="n">
-        <v>2745472.56</v>
+        <v>4758042.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1646294.79</v>
+        <v>4867630.42</v>
       </c>
       <c r="W40" t="n">
-        <v>1031725.528</v>
+        <v>4029498.556</v>
       </c>
       <c r="X40" t="n">
-        <v>6.92</v>
+        <v>6.51</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.380000000000001</v>
+        <v>10.68</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>0.03584897614068873</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.01294507371171671</v>
+        <v>-0.005660416741266383</v>
       </c>
       <c r="AB40" t="b">
         <v>1</v>
@@ -5585,101 +5228,92 @@
         <v>1</v>
       </c>
       <c r="AL40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO40" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00087.HK</t>
+          <t>00123.HK</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9.300000190734863</v>
+        <v>10.39999961853027</v>
       </c>
       <c r="D41" t="n">
-        <v>9.449999809265137</v>
+        <v>10.77999973297119</v>
       </c>
       <c r="E41" t="n">
-        <v>9.210000038146973</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="F41" t="n">
-        <v>9.260000228881836</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="G41" t="n">
-        <v>9.260000228881836</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="H41" t="n">
-        <v>8185000</v>
+        <v>5357291</v>
       </c>
       <c r="I41" t="n">
-        <v>9.08</v>
+        <v>10.63</v>
       </c>
       <c r="J41" t="n">
-        <v>9.130000000000001</v>
+        <v>10.32</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>10.02</v>
       </c>
       <c r="L41" t="n">
-        <v>8.390000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="M41" t="n">
-        <v>8.07</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>7.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>7.85</v>
+        <v>8.5</v>
       </c>
       <c r="P41" t="n">
-        <v>7.88</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.05594736842105263</v>
+        <v>0.02728571428571431</v>
       </c>
       <c r="R41" t="n">
-        <v>0.005338345864661653</v>
+        <v>0.01612781954887218</v>
       </c>
       <c r="S41" t="n">
-        <v>3191762</v>
+        <v>5858139.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2546452.45</v>
+        <v>5705969.15</v>
       </c>
       <c r="U41" t="n">
-        <v>2905749.64</v>
+        <v>4693161.14</v>
       </c>
       <c r="V41" t="n">
-        <v>1722293.97</v>
+        <v>5016693.18</v>
       </c>
       <c r="W41" t="n">
-        <v>1063975.528</v>
+        <v>4095769.236</v>
       </c>
       <c r="X41" t="n">
-        <v>6.92</v>
+        <v>6.51</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.380000000000001</v>
+        <v>10.98</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>-0.03131748970680592</v>
+        <v>-0.1071428859528346</v>
       </c>
       <c r="AB41" t="b">
         <v>1</v>
@@ -5712,21 +5346,12 @@
         <v>1</v>
       </c>
       <c r="AL41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44826</v>
+        <v>44810</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5734,67 +5359,67 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.239999771118164</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="D42" t="n">
-        <v>9.310000419616699</v>
+        <v>9.25</v>
       </c>
       <c r="E42" t="n">
-        <v>9.020000457763672</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="F42" t="n">
-        <v>9.270000457763672</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="G42" t="n">
-        <v>9.270000457763672</v>
+        <v>8.889999389648438</v>
       </c>
       <c r="H42" t="n">
-        <v>5375000</v>
+        <v>1540000</v>
       </c>
       <c r="I42" t="n">
-        <v>9.109999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="J42" t="n">
-        <v>9.130000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>9.06</v>
+        <v>8.41</v>
       </c>
       <c r="L42" t="n">
-        <v>8.41</v>
+        <v>8.15</v>
       </c>
       <c r="M42" t="n">
-        <v>8.09</v>
+        <v>7.91</v>
       </c>
       <c r="N42" t="n">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="O42" t="n">
-        <v>7.86</v>
+        <v>7.79</v>
       </c>
       <c r="P42" t="n">
-        <v>7.89</v>
+        <v>7.85</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.05646616541353384</v>
+        <v>0.04537593984962406</v>
       </c>
       <c r="R42" t="n">
-        <v>0.005428571428571437</v>
+        <v>0.004714285714285718</v>
       </c>
       <c r="S42" t="n">
-        <v>3616490.3</v>
+        <v>1901142.9</v>
       </c>
       <c r="T42" t="n">
-        <v>2603827.45</v>
+        <v>4387724.15</v>
       </c>
       <c r="U42" t="n">
-        <v>3009849.64</v>
+        <v>2391109.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1769668.97</v>
+        <v>1441827.29</v>
       </c>
       <c r="W42" t="n">
-        <v>1084495.528</v>
+        <v>950698.552</v>
       </c>
       <c r="X42" t="n">
         <v>6.92</v>
@@ -5803,10 +5428,10 @@
         <v>9.380000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>0.01644743136917204</v>
       </c>
       <c r="AA42" t="n">
-        <v>-0.03559879839099611</v>
+        <v>-0.01206136601508334</v>
       </c>
       <c r="AB42" t="b">
         <v>1</v>
@@ -5839,21 +5464,12 @@
         <v>1</v>
       </c>
       <c r="AL42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO42" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44827</v>
+        <v>44813</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5861,67 +5477,67 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.300000190734863</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="D43" t="n">
-        <v>9.390000343322754</v>
+        <v>9.189999580383301</v>
       </c>
       <c r="E43" t="n">
-        <v>9.229999542236328</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="F43" t="n">
-        <v>9.260000228881836</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="G43" t="n">
-        <v>9.260000228881836</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="H43" t="n">
-        <v>2353460</v>
+        <v>1465000</v>
       </c>
       <c r="I43" t="n">
-        <v>9.140000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>9.130000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>9.1</v>
+        <v>8.57</v>
       </c>
       <c r="L43" t="n">
-        <v>8.44</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>8.109999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="N43" t="n">
-        <v>7.93</v>
+        <v>7.87</v>
       </c>
       <c r="O43" t="n">
-        <v>7.87</v>
+        <v>7.8</v>
       </c>
       <c r="P43" t="n">
-        <v>7.89</v>
+        <v>7.86</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0566466165413534</v>
+        <v>0.04983458646616543</v>
       </c>
       <c r="R43" t="n">
-        <v>0.005639097744360913</v>
+        <v>0.005030075187969922</v>
       </c>
       <c r="S43" t="n">
-        <v>3684623.2</v>
+        <v>1390477.7</v>
       </c>
       <c r="T43" t="n">
-        <v>2593375.45</v>
+        <v>3807285.05</v>
       </c>
       <c r="U43" t="n">
-        <v>3036562.22</v>
+        <v>2417566.34</v>
       </c>
       <c r="V43" t="n">
-        <v>1789498.66</v>
+        <v>1468600.77</v>
       </c>
       <c r="W43" t="n">
-        <v>1093449.368</v>
+        <v>966040.572</v>
       </c>
       <c r="X43" t="n">
         <v>6.92</v>
@@ -5930,10 +5546,10 @@
         <v>9.380000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>0.0120088004567642</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.009719238700144017</v>
+        <v>-0.02074231261444615</v>
       </c>
       <c r="AB43" t="b">
         <v>1</v>
@@ -5966,21 +5582,12 @@
         <v>1</v>
       </c>
       <c r="AL43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO43" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44834</v>
+        <v>44817</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5988,67 +5595,67 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.939999580383301</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="D44" t="n">
-        <v>9.170000076293945</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E44" t="n">
-        <v>8.909999847412109</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="F44" t="n">
-        <v>9.170000076293945</v>
+        <v>9.25</v>
       </c>
       <c r="G44" t="n">
-        <v>9.170000076293945</v>
+        <v>9.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3837000</v>
+        <v>5692899</v>
       </c>
       <c r="I44" t="n">
-        <v>9.130000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>9.1</v>
+        <v>9.15</v>
       </c>
       <c r="K44" t="n">
-        <v>9.140000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L44" t="n">
-        <v>8.59</v>
+        <v>8.25</v>
       </c>
       <c r="M44" t="n">
-        <v>8.19</v>
+        <v>7.97</v>
       </c>
       <c r="N44" t="n">
-        <v>7.97</v>
+        <v>7.88</v>
       </c>
       <c r="O44" t="n">
-        <v>7.91</v>
+        <v>7.81</v>
       </c>
       <c r="P44" t="n">
-        <v>7.92</v>
+        <v>7.86</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04905263157894738</v>
+        <v>0.05107518796992484</v>
       </c>
       <c r="R44" t="n">
-        <v>0.007060150375939845</v>
+        <v>0.00506015037593984</v>
       </c>
       <c r="S44" t="n">
-        <v>4184074.8</v>
+        <v>1907767.6</v>
       </c>
       <c r="T44" t="n">
-        <v>2987538.95</v>
+        <v>3527978.7</v>
       </c>
       <c r="U44" t="n">
-        <v>3254634.56</v>
+        <v>2508991.76</v>
       </c>
       <c r="V44" t="n">
-        <v>1910028.77</v>
+        <v>1523229.76</v>
       </c>
       <c r="W44" t="n">
-        <v>1134523.288</v>
+        <v>987528.1679999999</v>
       </c>
       <c r="X44" t="n">
         <v>6.92</v>
@@ -6057,10 +5664,10 @@
         <v>9.380000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>0.002162211650126689</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>0.002162211650126755</v>
       </c>
       <c r="AB44" t="b">
         <v>1</v>
@@ -6093,101 +5700,92 @@
         <v>1</v>
       </c>
       <c r="AL44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO44" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>55.04999923706055</v>
+        <v>9.050000190734863</v>
       </c>
       <c r="D45" t="n">
-        <v>55.79999923706055</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="E45" t="n">
-        <v>54.70000076293945</v>
+        <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>55</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="G45" t="n">
-        <v>53.85000228881836</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="H45" t="n">
-        <v>2469659</v>
+        <v>8696520</v>
       </c>
       <c r="I45" t="n">
-        <v>55.15</v>
+        <v>9.07</v>
       </c>
       <c r="J45" t="n">
-        <v>54.14</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>50.93</v>
+        <v>8.94</v>
       </c>
       <c r="L45" t="n">
-        <v>48.94</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>47.35</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>46.92</v>
+        <v>7.91</v>
       </c>
       <c r="O45" t="n">
-        <v>46.45</v>
+        <v>7.84</v>
       </c>
       <c r="P45" t="n">
-        <v>46.97</v>
+        <v>7.88</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3037744360902255</v>
+        <v>0.05524812030075187</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03012030075187969</v>
+        <v>0.005225563909774435</v>
       </c>
       <c r="S45" t="n">
-        <v>2133282.6</v>
+        <v>2527262</v>
       </c>
       <c r="T45" t="n">
-        <v>2816249.3</v>
+        <v>2355341.95</v>
       </c>
       <c r="U45" t="n">
-        <v>1659969.7</v>
+        <v>2745472.56</v>
       </c>
       <c r="V45" t="n">
-        <v>1363311.99</v>
+        <v>1646294.79</v>
       </c>
       <c r="W45" t="n">
-        <v>1232201.692</v>
+        <v>1031725.528</v>
       </c>
       <c r="X45" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.6</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.002157443700297316</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.001818154074928913</v>
+        <v>-0.01294507371171671</v>
       </c>
       <c r="AB45" t="b">
         <v>1</v>
@@ -6220,101 +5818,92 @@
         <v>1</v>
       </c>
       <c r="AL45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO45" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44813</v>
+        <v>44825</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>54.90000152587891</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="D46" t="n">
-        <v>55.75</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="E46" t="n">
-        <v>54.70000076293945</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="F46" t="n">
-        <v>55.25</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="G46" t="n">
-        <v>55.25</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="H46" t="n">
-        <v>1837431</v>
+        <v>8185000</v>
       </c>
       <c r="I46" t="n">
-        <v>54.8</v>
+        <v>9.08</v>
       </c>
       <c r="J46" t="n">
-        <v>54.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>51.9</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>49.38</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>47.62</v>
+        <v>8.07</v>
       </c>
       <c r="N46" t="n">
-        <v>47.09</v>
+        <v>7.91</v>
       </c>
       <c r="O46" t="n">
-        <v>46.53</v>
+        <v>7.85</v>
       </c>
       <c r="P46" t="n">
-        <v>46.99</v>
+        <v>7.88</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3214060150375939</v>
+        <v>0.05594736842105263</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03144360902255629</v>
+        <v>0.005338345864661653</v>
       </c>
       <c r="S46" t="n">
-        <v>2220666.6</v>
+        <v>3191762</v>
       </c>
       <c r="T46" t="n">
-        <v>2585344.5</v>
+        <v>2546452.45</v>
       </c>
       <c r="U46" t="n">
-        <v>1738121.88</v>
+        <v>2905749.64</v>
       </c>
       <c r="V46" t="n">
-        <v>1410834.31</v>
+        <v>1722293.97</v>
       </c>
       <c r="W46" t="n">
-        <v>1248945.752</v>
+        <v>1063975.528</v>
       </c>
       <c r="X46" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.6</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.08144796380090498</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.01176473350007079</v>
+        <v>-0.03131748970680592</v>
       </c>
       <c r="AB46" t="b">
         <v>1</v>
@@ -6347,101 +5936,92 @@
         <v>1</v>
       </c>
       <c r="AL46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO46" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44817</v>
+        <v>44826</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>55.5</v>
+        <v>9.239999771118164</v>
       </c>
       <c r="D47" t="n">
-        <v>57.54999923706055</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="E47" t="n">
-        <v>55.45000076293945</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="F47" t="n">
-        <v>56.59999847412109</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="G47" t="n">
-        <v>56.59999847412109</v>
+        <v>9.270000457763672</v>
       </c>
       <c r="H47" t="n">
-        <v>4336566</v>
+        <v>5375000</v>
       </c>
       <c r="I47" t="n">
-        <v>54.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>55.07</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>52.32</v>
+        <v>9.06</v>
       </c>
       <c r="L47" t="n">
-        <v>49.58</v>
+        <v>8.41</v>
       </c>
       <c r="M47" t="n">
-        <v>47.74</v>
+        <v>8.09</v>
       </c>
       <c r="N47" t="n">
-        <v>47.16</v>
+        <v>7.92</v>
       </c>
       <c r="O47" t="n">
-        <v>46.57</v>
+        <v>7.86</v>
       </c>
       <c r="P47" t="n">
-        <v>47.01</v>
+        <v>7.89</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3259624060150376</v>
+        <v>0.05646616541353384</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03151879699248112</v>
+        <v>0.005428571428571437</v>
       </c>
       <c r="S47" t="n">
-        <v>2540761.8</v>
+        <v>3616490.3</v>
       </c>
       <c r="T47" t="n">
-        <v>2579031.4</v>
+        <v>2603827.45</v>
       </c>
       <c r="U47" t="n">
-        <v>1808081.42</v>
+        <v>3009849.64</v>
       </c>
       <c r="V47" t="n">
-        <v>1445980.04</v>
+        <v>1769668.97</v>
       </c>
       <c r="W47" t="n">
-        <v>1264324.684</v>
+        <v>1084495.528</v>
       </c>
       <c r="X47" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y47" t="n">
-        <v>56.6</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05918732118606099</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.04416961249818874</v>
+        <v>-0.03559879839099611</v>
       </c>
       <c r="AB47" t="b">
         <v>1</v>
@@ -6474,101 +6054,92 @@
         <v>1</v>
       </c>
       <c r="AL47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44823</v>
+        <v>44827</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>55.59999847412109</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="D48" t="n">
-        <v>56.25</v>
+        <v>9.390000343322754</v>
       </c>
       <c r="E48" t="n">
-        <v>55.15000152587891</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="F48" t="n">
-        <v>55.90000152587891</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="G48" t="n">
-        <v>55.90000152587891</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="H48" t="n">
-        <v>1716960</v>
+        <v>2353460</v>
       </c>
       <c r="I48" t="n">
-        <v>55.1</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>55.24</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>53.83</v>
+        <v>9.1</v>
       </c>
       <c r="L48" t="n">
-        <v>50.29</v>
+        <v>8.44</v>
       </c>
       <c r="M48" t="n">
-        <v>48.18</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>47.35</v>
+        <v>7.93</v>
       </c>
       <c r="O48" t="n">
-        <v>46.74</v>
+        <v>7.87</v>
       </c>
       <c r="P48" t="n">
-        <v>47.06</v>
+        <v>7.89</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3402932330827067</v>
+        <v>0.0566466165413534</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03228571428571415</v>
+        <v>0.005639097744360913</v>
       </c>
       <c r="S48" t="n">
-        <v>2248496.6</v>
+        <v>3684623.2</v>
       </c>
       <c r="T48" t="n">
-        <v>2272140.25</v>
+        <v>2593375.45</v>
       </c>
       <c r="U48" t="n">
-        <v>1883114.88</v>
+        <v>3036562.22</v>
       </c>
       <c r="V48" t="n">
-        <v>1488866.99</v>
+        <v>1789498.66</v>
       </c>
       <c r="W48" t="n">
-        <v>1281195.628</v>
+        <v>1093449.368</v>
       </c>
       <c r="X48" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y48" t="n">
-        <v>56.6</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.05545614292489676</v>
+        <v>-0.009719238700144017</v>
       </c>
       <c r="AB48" t="b">
         <v>1</v>
@@ -6601,101 +6172,92 @@
         <v>1</v>
       </c>
       <c r="AL48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO48" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44824</v>
+        <v>44834</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>56.65000152587891</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="D49" t="n">
-        <v>59.15000152587891</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="E49" t="n">
-        <v>56.25</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="F49" t="n">
-        <v>59.09999847412109</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="G49" t="n">
-        <v>59.09999847412109</v>
+        <v>9.170000076293945</v>
       </c>
       <c r="H49" t="n">
-        <v>3887953</v>
+        <v>3837000</v>
       </c>
       <c r="I49" t="n">
-        <v>55.53</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>55.37</v>
+        <v>9.1</v>
       </c>
       <c r="K49" t="n">
-        <v>54.29</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>50.55</v>
+        <v>8.59</v>
       </c>
       <c r="M49" t="n">
-        <v>48.33</v>
+        <v>8.19</v>
       </c>
       <c r="N49" t="n">
-        <v>47.41</v>
+        <v>7.97</v>
       </c>
       <c r="O49" t="n">
-        <v>46.81</v>
+        <v>7.91</v>
       </c>
       <c r="P49" t="n">
-        <v>47.09</v>
+        <v>7.92</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.3451503759398497</v>
+        <v>0.04905263157894738</v>
       </c>
       <c r="R49" t="n">
-        <v>0.03306766917293226</v>
+        <v>0.007060150375939845</v>
       </c>
       <c r="S49" t="n">
-        <v>2476538.4</v>
+        <v>4184074.8</v>
       </c>
       <c r="T49" t="n">
-        <v>2319863.95</v>
+        <v>2987538.95</v>
       </c>
       <c r="U49" t="n">
-        <v>1943684.2</v>
+        <v>3254634.56</v>
       </c>
       <c r="V49" t="n">
-        <v>1520436.91</v>
+        <v>1910028.77</v>
       </c>
       <c r="W49" t="n">
-        <v>1295073.088</v>
+        <v>1134523.288</v>
       </c>
       <c r="X49" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y49" t="n">
-        <v>59.1</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01438244180650128</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="b">
         <v>1</v>
@@ -6728,101 +6290,92 @@
         <v>1</v>
       </c>
       <c r="AL49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO49" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44827</v>
+        <v>44837</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>59.34999847412109</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="E50" t="n">
-        <v>58.65000152587891</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="F50" t="n">
-        <v>59.40000152587891</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="G50" t="n">
-        <v>59.40000152587891</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="H50" t="n">
-        <v>2639307</v>
+        <v>2290000</v>
       </c>
       <c r="I50" t="n">
-        <v>57.09</v>
+        <v>9.15</v>
       </c>
       <c r="J50" t="n">
-        <v>56</v>
+        <v>9.1</v>
       </c>
       <c r="K50" t="n">
-        <v>55.55</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>51.35</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="M50" t="n">
-        <v>48.78</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N50" t="n">
-        <v>47.63</v>
+        <v>7.98</v>
       </c>
       <c r="O50" t="n">
-        <v>47.05</v>
+        <v>7.92</v>
       </c>
       <c r="P50" t="n">
-        <v>47.2</v>
+        <v>7.93</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.3632706766917291</v>
+        <v>0.04574436090225566</v>
       </c>
       <c r="R50" t="n">
-        <v>0.03916541353383451</v>
+        <v>0.00733082706766917</v>
       </c>
       <c r="S50" t="n">
-        <v>2929862.6</v>
+        <v>4225074.8</v>
       </c>
       <c r="T50" t="n">
-        <v>2595259.55</v>
+        <v>3016288.95</v>
       </c>
       <c r="U50" t="n">
-        <v>2147652.32</v>
+        <v>3296477.3</v>
       </c>
       <c r="V50" t="n">
-        <v>1594706.59</v>
+        <v>1925803.77</v>
       </c>
       <c r="W50" t="n">
-        <v>1333345.832</v>
+        <v>1142763.288</v>
       </c>
       <c r="X50" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y50" t="n">
-        <v>59.75</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>-0.01094278634985768</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="b">
         <v>1</v>
@@ -6855,95 +6408,86 @@
         <v>1</v>
       </c>
       <c r="AL50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO50" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44831</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00019.HK</t>
+          <t>00087.HK</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>59</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="D51" t="n">
-        <v>60.25</v>
+        <v>9.390000343322754</v>
       </c>
       <c r="E51" t="n">
-        <v>57.54999923706055</v>
+        <v>9.210000038146973</v>
       </c>
       <c r="F51" t="n">
-        <v>59.95000076293945</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="G51" t="n">
-        <v>59.95000076293945</v>
+        <v>9.289999961853027</v>
       </c>
       <c r="H51" t="n">
-        <v>3558732</v>
+        <v>2133534</v>
       </c>
       <c r="I51" t="n">
-        <v>57.8</v>
+        <v>9.15</v>
       </c>
       <c r="J51" t="n">
-        <v>56.36</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>55.98</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>51.92</v>
+        <v>8.66</v>
       </c>
       <c r="M51" t="n">
-        <v>49.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="N51" t="n">
-        <v>47.79</v>
+        <v>7.99</v>
       </c>
       <c r="O51" t="n">
-        <v>47.21</v>
+        <v>7.93</v>
       </c>
       <c r="P51" t="n">
-        <v>47.3</v>
+        <v>7.93</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3673834586466165</v>
+        <v>0.04212030075187972</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04547368421052635</v>
+        <v>0.007533834586466165</v>
       </c>
       <c r="S51" t="n">
-        <v>3242263.9</v>
+        <v>3568776.2</v>
       </c>
       <c r="T51" t="n">
-        <v>2891512.85</v>
+        <v>3048019.1</v>
       </c>
       <c r="U51" t="n">
-        <v>2309577.74</v>
+        <v>3332747.98</v>
       </c>
       <c r="V51" t="n">
-        <v>1674021.34</v>
+        <v>1942639.11</v>
       </c>
       <c r="W51" t="n">
-        <v>1350092.548</v>
+        <v>1150537.424</v>
       </c>
       <c r="X51" t="n">
-        <v>40.65</v>
+        <v>6.92</v>
       </c>
       <c r="Y51" t="n">
-        <v>59.95</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -6984,13 +6528,948 @@
       <c r="AL51" t="b">
         <v>1</v>
       </c>
-      <c r="AM51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO51" t="b">
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="D52" t="n">
+        <v>55.79999923706055</v>
+      </c>
+      <c r="E52" t="n">
+        <v>54.70000076293945</v>
+      </c>
+      <c r="F52" t="n">
+        <v>55</v>
+      </c>
+      <c r="G52" t="n">
+        <v>53.85000228881836</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2469659</v>
+      </c>
+      <c r="I52" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50.93</v>
+      </c>
+      <c r="L52" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="M52" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="N52" t="n">
+        <v>46.92</v>
+      </c>
+      <c r="O52" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="P52" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3037744360902255</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.03012030075187969</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2133282.6</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2816249.3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1659969.7</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1363311.99</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1232201.692</v>
+      </c>
+      <c r="X52" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.08636363636363636</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.001818154074928913</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>54.90000152587891</v>
+      </c>
+      <c r="D53" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="E53" t="n">
+        <v>54.70000076293945</v>
+      </c>
+      <c r="F53" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="G53" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1837431</v>
+      </c>
+      <c r="I53" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L53" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="M53" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="N53" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="O53" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3214060150375939</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.03144360902255629</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2220666.6</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2585344.5</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1738121.88</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1410834.31</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1248945.752</v>
+      </c>
+      <c r="X53" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.08144796380090498</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.01176473350007079</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="E54" t="n">
+        <v>55.45000076293945</v>
+      </c>
+      <c r="F54" t="n">
+        <v>56.59999847412109</v>
+      </c>
+      <c r="G54" t="n">
+        <v>56.59999847412109</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4336566</v>
+      </c>
+      <c r="I54" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J54" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="K54" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="L54" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="M54" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="N54" t="n">
+        <v>47.16</v>
+      </c>
+      <c r="O54" t="n">
+        <v>46.57</v>
+      </c>
+      <c r="P54" t="n">
+        <v>47.01</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3259624060150376</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.03151879699248112</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2540761.8</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2579031.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1808081.42</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1445980.04</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1264324.684</v>
+      </c>
+      <c r="X54" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.05918732118606099</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.04416961249818874</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>55.59999847412109</v>
+      </c>
+      <c r="D55" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="E55" t="n">
+        <v>55.15000152587891</v>
+      </c>
+      <c r="F55" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="G55" t="n">
+        <v>55.90000152587891</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1716960</v>
+      </c>
+      <c r="I55" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="K55" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="L55" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="M55" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="N55" t="n">
+        <v>47.35</v>
+      </c>
+      <c r="O55" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="P55" t="n">
+        <v>47.06</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3402932330827067</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.03228571428571415</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2248496.6</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2272140.25</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1883114.88</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1488866.99</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1281195.628</v>
+      </c>
+      <c r="X55" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.07245078938299478</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.05545614292489676</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>56.65000152587891</v>
+      </c>
+      <c r="D56" t="n">
+        <v>59.15000152587891</v>
+      </c>
+      <c r="E56" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="F56" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="G56" t="n">
+        <v>59.09999847412109</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3887953</v>
+      </c>
+      <c r="I56" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="J56" t="n">
+        <v>55.37</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="L56" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="M56" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="N56" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="O56" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="P56" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.3451503759398497</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.03306766917293226</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2476538.4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2319863.95</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1943684.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1520436.91</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1295073.088</v>
+      </c>
+      <c r="X56" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.01438244180650137</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.01438244180650128</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="D57" t="n">
+        <v>60</v>
+      </c>
+      <c r="E57" t="n">
+        <v>58.65000152587891</v>
+      </c>
+      <c r="F57" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="G57" t="n">
+        <v>59.40000152587891</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2639307</v>
+      </c>
+      <c r="I57" t="n">
+        <v>57.09</v>
+      </c>
+      <c r="J57" t="n">
+        <v>56</v>
+      </c>
+      <c r="K57" t="n">
+        <v>55.55</v>
+      </c>
+      <c r="L57" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="M57" t="n">
+        <v>48.78</v>
+      </c>
+      <c r="N57" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="O57" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="P57" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3632706766917291</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.03916541353383451</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2929862.6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2595259.55</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2147652.32</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1594706.59</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1333345.832</v>
+      </c>
+      <c r="X57" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.01094278634985768</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>59</v>
+      </c>
+      <c r="D58" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E58" t="n">
+        <v>57.54999923706055</v>
+      </c>
+      <c r="F58" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="G58" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3558732</v>
+      </c>
+      <c r="I58" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="K58" t="n">
+        <v>55.98</v>
+      </c>
+      <c r="L58" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="M58" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="N58" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="O58" t="n">
+        <v>47.21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.3673834586466165</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.04547368421052635</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3242263.9</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2891512.85</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2309577.74</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1674021.34</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1350092.548</v>
+      </c>
+      <c r="X58" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-0.02335281915032728</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>00019.HK</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>60</v>
+      </c>
+      <c r="D59" t="n">
+        <v>60.09999847412109</v>
+      </c>
+      <c r="E59" t="n">
+        <v>58.29999923706055</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58.54999923706055</v>
+      </c>
+      <c r="G59" t="n">
+        <v>58.54999923706055</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2975317</v>
+      </c>
+      <c r="I59" t="n">
+        <v>58.95</v>
+      </c>
+      <c r="J59" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.56</v>
+      </c>
+      <c r="L59" t="n">
+        <v>53.26</v>
+      </c>
+      <c r="M59" t="n">
+        <v>49.77</v>
+      </c>
+      <c r="N59" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="O59" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="P59" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.06208270676691727</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3592861.2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3034699.8</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2520535.84</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1778967.06</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1379859.004</v>
+      </c>
+      <c r="X59" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL59" t="b">
         <v>1</v>
       </c>
     </row>
